--- a/Naver_Liquor_Wiki/naver_wiki_total.xlsx
+++ b/Naver_Liquor_Wiki/naver_wiki_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1Carbon\Hee\ML_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5486E9A-3817-4D69-AA71-1EBE5EEF0309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50866E-F988-4546-B19E-A652B5997AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="542">
   <si>
     <t>제품명</t>
   </si>
@@ -136,12 +149,6 @@
     <t>고소리술</t>
   </si>
   <si>
-    <t>고은달백자</t>
-  </si>
-  <si>
-    <t>고은달오크</t>
-  </si>
-  <si>
     <t>고창선운산땡큐복분자주</t>
   </si>
   <si>
@@ -331,9 +338,6 @@
     <t>동정춘</t>
   </si>
   <si>
-    <t>동정춘막걸리</t>
-  </si>
-  <si>
     <t>동학1957</t>
   </si>
   <si>
@@ -388,9 +392,6 @@
     <t>막시모40</t>
   </si>
   <si>
-    <t>만강에비친달맛</t>
-  </si>
-  <si>
     <t>맑은내일발효막걸리</t>
   </si>
   <si>
@@ -493,12 +494,6 @@
     <t>문배술헤리티지40</t>
   </si>
   <si>
-    <t>미르25s</t>
-  </si>
-  <si>
-    <t>미르40s</t>
-  </si>
-  <si>
     <t>미생막걸리</t>
   </si>
   <si>
@@ -583,9 +578,6 @@
     <t>병영설성동동주</t>
   </si>
   <si>
-    <t>병영성사또</t>
-  </si>
-  <si>
     <t>병영설성생막걸리</t>
   </si>
   <si>
@@ -616,9 +608,6 @@
     <t>부안참뽕와인</t>
   </si>
   <si>
-    <t>부자막걸리</t>
-  </si>
-  <si>
     <t>불소곡주</t>
   </si>
   <si>
@@ -724,9 +713,6 @@
     <t>세종알밤주</t>
   </si>
   <si>
-    <t>세종오가닉청주</t>
-  </si>
-  <si>
     <t>세종청주생막걸리</t>
   </si>
   <si>
@@ -922,18 +908,12 @@
     <t>예밀와인로제</t>
   </si>
   <si>
-    <t>예밀인레드스위트</t>
-  </si>
-  <si>
     <t>예주</t>
   </si>
   <si>
     <t>예화</t>
   </si>
   <si>
-    <t>오디랑맛</t>
-  </si>
-  <si>
     <t>오매백주</t>
   </si>
   <si>
@@ -1072,9 +1052,6 @@
     <t>조선주조사</t>
   </si>
   <si>
-    <t>조은술세종바나나</t>
-  </si>
-  <si>
     <t>주몽복분자주</t>
   </si>
   <si>
@@ -1114,12 +1091,6 @@
     <t>지장수호박생막걸리</t>
   </si>
   <si>
-    <t>지평생막걸리쌀막걸리</t>
-  </si>
-  <si>
-    <t>지평생막걸리옛막걸리</t>
-  </si>
-  <si>
     <t>진도홍주루비콘</t>
   </si>
   <si>
@@ -1141,9 +1112,6 @@
     <t>천년전주생막걸리</t>
   </si>
   <si>
-    <t>천년주밤</t>
-  </si>
-  <si>
     <t>천등산차례주</t>
   </si>
   <si>
@@ -1243,9 +1211,6 @@
     <t>쿨샷7.5</t>
   </si>
   <si>
-    <t>크라테레드와인드라이밤</t>
-  </si>
-  <si>
     <t>크라테레드와인스위트</t>
   </si>
   <si>
@@ -1262,9 +1227,6 @@
   </si>
   <si>
     <t>톡한잔소주</t>
-  </si>
-  <si>
-    <t>펀치바나나</t>
   </si>
   <si>
     <t>편백숲산소막걸리</t>
@@ -1684,6 +1646,78 @@
   </si>
   <si>
     <t>호담</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동정춘막걸리산정호수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미르25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미르40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만강에비친달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고운달백자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고운달오크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예밀와인레드스위트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크라테레드와인드라이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>병영설성사또</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">펀치쌀바나나 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조은술세종바나나주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부자10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지평생쌀막걸리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지평생옛막걸리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종오가닉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1691,7 +1725,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1714,13 +1748,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1750,9 +1799,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1761,14 +1808,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2107,19 +2163,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J534"/>
+  <dimension ref="A1:K534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2143,13 +2202,14 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2">
@@ -2165,11 +2225,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3">
@@ -2185,11 +2245,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D4">
@@ -2205,11 +2265,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5">
@@ -2225,11 +2285,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6">
@@ -2245,11 +2305,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7">
@@ -2265,12 +2325,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>465</v>
+      <c r="B8" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2282,12 +2342,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>466</v>
+      <c r="B9" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2305,12 +2365,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>468</v>
+      <c r="B10" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -2325,11 +2385,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D11">
@@ -2345,11 +2405,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12">
@@ -2365,11 +2425,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D13">
@@ -2385,11 +2445,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D14">
@@ -2405,11 +2465,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D15">
@@ -2425,11 +2485,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D16">
@@ -2449,7 +2509,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C17">
@@ -2466,7 +2526,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D18">
@@ -2486,8 +2546,8 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>513</v>
+      <c r="B19" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2503,7 +2563,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D20">
@@ -2523,7 +2583,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C21">
@@ -2540,8 +2600,8 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>477</v>
+      <c r="B22" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2560,7 +2620,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C23">
@@ -2577,7 +2637,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C24">
@@ -2594,7 +2654,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C25">
@@ -2611,7 +2671,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D26">
@@ -2631,7 +2691,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D27">
@@ -2651,7 +2711,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2668,8 +2728,8 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>531</v>
+      <c r="B29" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2688,7 +2748,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C30">
@@ -2705,8 +2765,8 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>478</v>
+      <c r="B31" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2725,8 +2785,8 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>479</v>
+      <c r="B32" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2742,8 +2802,8 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>480</v>
+      <c r="B33" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2759,8 +2819,8 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>481</v>
+      <c r="B34" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2776,8 +2836,8 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>482</v>
+      <c r="B35" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2793,7 +2853,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C36">
@@ -2810,7 +2870,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D37">
@@ -2830,7 +2890,7 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D38">
@@ -2850,7 +2910,7 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D39">
@@ -2870,7 +2930,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D40">
@@ -2890,7 +2950,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D41">
@@ -2910,8 +2970,8 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>37</v>
+      <c r="B42" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2927,8 +2987,8 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>38</v>
+      <c r="B43" s="5" t="s">
+        <v>529</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -2944,8 +3004,8 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>39</v>
+      <c r="B44" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -2964,8 +3024,8 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>40</v>
+      <c r="B45" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2984,8 +3044,8 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>41</v>
+      <c r="B46" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -3004,8 +3064,8 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>42</v>
+      <c r="B47" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -3024,8 +3084,8 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>43</v>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -3044,8 +3104,8 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>44</v>
+      <c r="B49" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -3064,8 +3124,8 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>46</v>
+      <c r="B50" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3081,8 +3141,8 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>47</v>
+      <c r="B51" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3101,8 +3161,8 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>51</v>
+      <c r="B52" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3121,8 +3181,8 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>52</v>
+      <c r="B53" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3141,8 +3201,8 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>48</v>
+      <c r="B54" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3161,8 +3221,8 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>49</v>
+      <c r="B55" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3181,8 +3241,8 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>50</v>
+      <c r="B56" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3201,8 +3261,8 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>53</v>
+      <c r="B57" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3221,8 +3281,8 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>54</v>
+      <c r="B58" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3241,8 +3301,8 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>55</v>
+      <c r="B59" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3261,8 +3321,8 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>56</v>
+      <c r="B60" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3281,8 +3341,8 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>512</v>
+      <c r="B61" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -3298,8 +3358,8 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>511</v>
+      <c r="B62" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -3315,8 +3375,8 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>57</v>
+      <c r="B63" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3335,8 +3395,8 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>58</v>
+      <c r="B64" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3355,8 +3415,8 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>59</v>
+      <c r="B65" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3375,8 +3435,8 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>60</v>
+      <c r="B66" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3395,8 +3455,8 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>61</v>
+      <c r="B67" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -3415,8 +3475,8 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>62</v>
+      <c r="B68" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3435,8 +3495,8 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>63</v>
+      <c r="B69" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -3455,8 +3515,8 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>64</v>
+      <c r="B70" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -3475,8 +3535,8 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>483</v>
+      <c r="B71" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3495,8 +3555,8 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>484</v>
+      <c r="B72" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3512,8 +3572,8 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>65</v>
+      <c r="B73" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -3532,8 +3592,8 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>66</v>
+      <c r="B74" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -3552,8 +3612,8 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>67</v>
+      <c r="B75" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3572,8 +3632,8 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>68</v>
+      <c r="B76" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3592,8 +3652,8 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>69</v>
+      <c r="B77" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -3612,8 +3672,8 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>70</v>
+      <c r="B78" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -3632,8 +3692,8 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>485</v>
+      <c r="B79" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -3652,8 +3712,8 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>486</v>
+      <c r="B80" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -3672,8 +3732,8 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>71</v>
+      <c r="B81" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -3692,8 +3752,8 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>72</v>
+      <c r="B82" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -3712,8 +3772,8 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>73</v>
+      <c r="B83" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3732,8 +3792,8 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>97</v>
+      <c r="B84" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -3749,8 +3809,8 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>514</v>
+      <c r="B85" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -3766,8 +3826,8 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>515</v>
+      <c r="B86" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -3786,8 +3846,8 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>516</v>
+      <c r="B87" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -3806,8 +3866,8 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>74</v>
+      <c r="B88" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -3826,8 +3886,8 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
-        <v>75</v>
+      <c r="B89" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -3846,8 +3906,8 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>76</v>
+      <c r="B90" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -3866,8 +3926,8 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>77</v>
+      <c r="B91" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3886,8 +3946,8 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>78</v>
+      <c r="B92" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -3906,8 +3966,8 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>79</v>
+      <c r="B93" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -3926,8 +3986,8 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>80</v>
+      <c r="B94" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3946,8 +4006,8 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>81</v>
+      <c r="B95" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -3966,8 +4026,8 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>82</v>
+      <c r="B96" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -3986,8 +4046,8 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>517</v>
+      <c r="B97" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4006,8 +4066,8 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>83</v>
+      <c r="B98" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4026,8 +4086,8 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
-        <v>84</v>
+      <c r="B99" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -4046,8 +4106,8 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>85</v>
+      <c r="B100" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -4063,8 +4123,8 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>86</v>
+      <c r="B101" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -4083,8 +4143,8 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>87</v>
+      <c r="B102" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -4103,8 +4163,8 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
-        <v>88</v>
+      <c r="B103" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -4123,8 +4183,8 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
-        <v>89</v>
+      <c r="B104" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -4143,8 +4203,8 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>90</v>
+      <c r="B105" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -4163,8 +4223,8 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>91</v>
+      <c r="B106" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -4183,8 +4243,8 @@
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
-        <v>92</v>
+      <c r="B107" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -4203,8 +4263,8 @@
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>93</v>
+      <c r="B108" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -4223,8 +4283,8 @@
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>94</v>
+      <c r="B109" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -4243,8 +4303,8 @@
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
-        <v>487</v>
+      <c r="B110" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -4263,8 +4323,8 @@
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
-        <v>488</v>
+      <c r="B111" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -4283,8 +4343,8 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>489</v>
+      <c r="B112" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -4303,8 +4363,8 @@
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
-        <v>95</v>
+      <c r="B113" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D113">
         <v>4</v>
@@ -4323,8 +4383,8 @@
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
-        <v>96</v>
+      <c r="B114" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -4343,8 +4403,8 @@
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
-        <v>98</v>
+      <c r="B115" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -4360,8 +4420,8 @@
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
-        <v>99</v>
+      <c r="B116" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -4377,8 +4437,8 @@
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>100</v>
+      <c r="B117" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -4397,8 +4457,8 @@
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
-        <v>101</v>
+      <c r="B118" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D118">
         <v>4</v>
@@ -4417,28 +4477,29 @@
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
-        <v>102</v>
-      </c>
-      <c r="D119">
-        <v>4</v>
-      </c>
-      <c r="E119">
-        <v>3</v>
-      </c>
-      <c r="F119">
-        <v>2</v>
-      </c>
-      <c r="G119">
-        <v>3</v>
+      <c r="B119" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2">
+        <v>5</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>4</v>
+      </c>
+      <c r="G119" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
-        <v>103</v>
+      <c r="B120" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -4457,8 +4518,8 @@
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
-        <v>104</v>
+      <c r="B121" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -4477,8 +4538,8 @@
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
-        <v>105</v>
+      <c r="B122" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4494,8 +4555,8 @@
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>106</v>
+      <c r="B123" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -4511,8 +4572,8 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
-        <v>107</v>
+      <c r="B124" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -4531,8 +4592,8 @@
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
-        <v>108</v>
+      <c r="B125" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -4548,8 +4609,8 @@
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
-        <v>109</v>
+      <c r="B126" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C126">
         <v>3</v>
@@ -4565,8 +4626,8 @@
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
-        <v>110</v>
+      <c r="B127" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -4585,8 +4646,8 @@
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
-        <v>111</v>
+      <c r="B128" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -4605,8 +4666,8 @@
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
-        <v>112</v>
+      <c r="B129" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -4625,8 +4686,8 @@
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
-        <v>113</v>
+      <c r="B130" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -4645,8 +4706,8 @@
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
-        <v>114</v>
+      <c r="B131" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -4665,8 +4726,8 @@
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
-        <v>518</v>
+      <c r="B132" s="5" t="s">
+        <v>501</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -4682,8 +4743,8 @@
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
-        <v>490</v>
+      <c r="B133" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -4699,8 +4760,8 @@
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
-        <v>491</v>
+      <c r="B134" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -4716,8 +4777,8 @@
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
-        <v>115</v>
+      <c r="B135" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -4733,8 +4794,8 @@
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
-        <v>116</v>
+      <c r="B136" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -4750,8 +4811,8 @@
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
-        <v>117</v>
+      <c r="B137" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -4770,8 +4831,8 @@
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
-        <v>118</v>
+      <c r="B138" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D138">
         <v>4</v>
@@ -4790,8 +4851,8 @@
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
-        <v>119</v>
+      <c r="B139" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -4807,8 +4868,8 @@
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>120</v>
+      <c r="B140" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -4824,8 +4885,8 @@
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
-        <v>121</v>
+      <c r="B141" s="5" t="s">
+        <v>527</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -4844,8 +4905,8 @@
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
-        <v>124</v>
+      <c r="B142" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -4864,8 +4925,8 @@
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
-        <v>122</v>
+      <c r="B143" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -4884,8 +4945,8 @@
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
-        <v>123</v>
+      <c r="B144" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -4904,8 +4965,8 @@
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
-        <v>125</v>
+      <c r="B145" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -4924,8 +4985,8 @@
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
-        <v>126</v>
+      <c r="B146" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -4944,8 +5005,8 @@
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
-        <v>127</v>
+      <c r="B147" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D147">
         <v>3</v>
@@ -4964,8 +5025,8 @@
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
-        <v>492</v>
+      <c r="B148" s="5" t="s">
+        <v>475</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -4981,8 +5042,8 @@
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
-        <v>128</v>
+      <c r="B149" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -5001,8 +5062,8 @@
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
-        <v>129</v>
+      <c r="B150" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -5021,8 +5082,8 @@
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
-        <v>130</v>
+      <c r="B151" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -5041,8 +5102,8 @@
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
-        <v>131</v>
+      <c r="B152" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D152">
         <v>4</v>
@@ -5061,8 +5122,8 @@
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
-        <v>132</v>
+      <c r="B153" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="D153">
         <v>4</v>
@@ -5081,8 +5142,8 @@
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
-        <v>133</v>
+      <c r="B154" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -5098,8 +5159,8 @@
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
-        <v>134</v>
+      <c r="B155" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -5118,8 +5179,8 @@
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
-        <v>135</v>
+      <c r="B156" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -5135,8 +5196,8 @@
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
-        <v>519</v>
+      <c r="B157" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -5152,8 +5213,8 @@
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
-        <v>136</v>
+      <c r="B158" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -5169,8 +5230,8 @@
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>137</v>
+      <c r="B159" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -5186,8 +5247,8 @@
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
-        <v>138</v>
+      <c r="B160" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -5203,8 +5264,8 @@
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>139</v>
+      <c r="B161" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -5223,8 +5284,8 @@
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
-        <v>140</v>
+      <c r="B162" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -5243,8 +5304,8 @@
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
-        <v>141</v>
+      <c r="B163" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -5260,8 +5321,8 @@
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
-        <v>142</v>
+      <c r="B164" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -5277,8 +5338,8 @@
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>143</v>
+      <c r="B165" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -5297,8 +5358,8 @@
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
-        <v>144</v>
+      <c r="B166" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C166">
         <v>4</v>
@@ -5314,8 +5375,8 @@
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
-        <v>145</v>
+      <c r="B167" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -5334,8 +5395,8 @@
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
-        <v>146</v>
+      <c r="B168" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -5351,8 +5412,8 @@
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
-        <v>147</v>
+      <c r="B169" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D169">
         <v>4</v>
@@ -5371,8 +5432,8 @@
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
-        <v>149</v>
+      <c r="B170" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -5391,8 +5452,8 @@
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
-        <v>150</v>
+      <c r="B171" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -5411,8 +5472,8 @@
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
-        <v>493</v>
+      <c r="B172" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -5428,8 +5489,8 @@
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
-        <v>494</v>
+      <c r="B173" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -5445,8 +5506,8 @@
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
-        <v>151</v>
+      <c r="B174" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C174">
         <v>4</v>
@@ -5462,8 +5523,8 @@
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
-        <v>152</v>
+      <c r="B175" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -5482,8 +5543,8 @@
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
-        <v>153</v>
+      <c r="B176" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -5499,8 +5560,8 @@
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
-        <v>154</v>
+      <c r="B177" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -5516,8 +5577,8 @@
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
-        <v>155</v>
+      <c r="B178" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C178">
         <v>2</v>
@@ -5533,8 +5594,8 @@
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
-        <v>520</v>
+      <c r="B179" s="5" t="s">
+        <v>503</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -5553,8 +5614,8 @@
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
-        <v>521</v>
+      <c r="B180" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -5573,8 +5634,8 @@
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
-        <v>156</v>
+      <c r="B181" s="5" t="s">
+        <v>525</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -5593,8 +5654,8 @@
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
-        <v>157</v>
+      <c r="B182" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -5613,8 +5674,8 @@
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
-        <v>158</v>
+      <c r="B183" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -5633,8 +5694,8 @@
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
-        <v>159</v>
+      <c r="B184" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -5653,8 +5714,8 @@
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
-        <v>160</v>
+      <c r="B185" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="D185">
         <v>4</v>
@@ -5673,8 +5734,8 @@
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
-        <v>161</v>
+      <c r="B186" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="D186">
         <v>4</v>
@@ -5693,8 +5754,8 @@
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
-        <v>162</v>
+      <c r="B187" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -5713,8 +5774,8 @@
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
-        <v>469</v>
+      <c r="B188" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -5730,8 +5791,8 @@
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="s">
-        <v>163</v>
+      <c r="B189" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="D189">
         <v>4</v>
@@ -5750,8 +5811,8 @@
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
-        <v>164</v>
+      <c r="B190" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="D190">
         <v>5</v>
@@ -5770,8 +5831,8 @@
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="s">
-        <v>165</v>
+      <c r="B191" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D191">
         <v>2</v>
@@ -5790,8 +5851,8 @@
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
-        <v>166</v>
+      <c r="B192" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -5810,8 +5871,8 @@
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
-        <v>167</v>
+      <c r="B193" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -5830,8 +5891,8 @@
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
-        <v>168</v>
+      <c r="B194" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="C194">
         <v>4</v>
@@ -5850,8 +5911,8 @@
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
-        <v>169</v>
+      <c r="B195" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -5867,8 +5928,8 @@
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
-        <v>170</v>
+      <c r="B196" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -5887,8 +5948,8 @@
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="s">
-        <v>171</v>
+      <c r="B197" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -5907,8 +5968,8 @@
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="s">
-        <v>172</v>
+      <c r="B198" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D198">
         <v>2</v>
@@ -5927,8 +5988,8 @@
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="s">
-        <v>173</v>
+      <c r="B199" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -5947,8 +6008,8 @@
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
-        <v>174</v>
+      <c r="B200" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -5967,8 +6028,8 @@
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="s">
-        <v>175</v>
+      <c r="B201" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -5987,8 +6048,8 @@
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="s">
-        <v>176</v>
+      <c r="B202" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="D202">
         <v>2</v>
@@ -6007,8 +6068,8 @@
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
-        <v>177</v>
+      <c r="B203" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="D203">
         <v>3</v>
@@ -6027,8 +6088,8 @@
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="s">
-        <v>178</v>
+      <c r="B204" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -6047,8 +6108,8 @@
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="s">
-        <v>179</v>
+      <c r="B205" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="D205">
         <v>4</v>
@@ -6067,8 +6128,8 @@
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="s">
-        <v>180</v>
+      <c r="B206" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="D206">
         <v>5</v>
@@ -6087,8 +6148,8 @@
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
-        <v>181</v>
+      <c r="B207" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="D207">
         <v>4</v>
@@ -6107,8 +6168,8 @@
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="s">
-        <v>182</v>
+      <c r="B208" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -6127,8 +6188,8 @@
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="s">
-        <v>183</v>
+      <c r="B209" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="D209">
         <v>2</v>
@@ -6147,8 +6208,8 @@
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
-        <v>184</v>
+      <c r="B210" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="D210">
         <v>4</v>
@@ -6167,8 +6228,8 @@
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="s">
-        <v>185</v>
+      <c r="B211" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -6187,8 +6248,8 @@
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="s">
-        <v>187</v>
+      <c r="B212" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="D212">
         <v>3</v>
@@ -6207,8 +6268,8 @@
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="s">
-        <v>186</v>
+      <c r="B213" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="C213">
         <v>4</v>
@@ -6224,8 +6285,8 @@
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
-        <v>188</v>
+      <c r="B214" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D214">
         <v>3</v>
@@ -6244,8 +6305,8 @@
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="s">
-        <v>189</v>
+      <c r="B215" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -6261,8 +6322,8 @@
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="s">
-        <v>190</v>
+      <c r="B216" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="D216">
         <v>2</v>
@@ -6281,8 +6342,8 @@
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
-        <v>191</v>
+      <c r="B217" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D217">
         <v>2</v>
@@ -6301,8 +6362,8 @@
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="s">
-        <v>192</v>
+      <c r="B218" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -6321,8 +6382,8 @@
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="s">
-        <v>193</v>
+      <c r="B219" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -6341,8 +6402,8 @@
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="s">
-        <v>194</v>
+      <c r="B220" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -6361,8 +6422,8 @@
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="s">
-        <v>195</v>
+      <c r="B221" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -6381,8 +6442,8 @@
       <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="s">
-        <v>196</v>
+      <c r="B222" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="D222">
         <v>3</v>
@@ -6401,8 +6462,8 @@
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="s">
-        <v>197</v>
+      <c r="B223" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="D223">
         <v>4</v>
@@ -6421,8 +6482,8 @@
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="s">
-        <v>198</v>
+      <c r="B224" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -6438,8 +6499,8 @@
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="s">
-        <v>199</v>
+      <c r="B225" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="D225">
         <v>4</v>
@@ -6458,8 +6519,8 @@
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="s">
-        <v>200</v>
+      <c r="B226" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="D226">
         <v>3</v>
@@ -6478,8 +6539,8 @@
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="s">
-        <v>201</v>
+      <c r="B227" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D227">
         <v>4</v>
@@ -6498,8 +6559,8 @@
       <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="s">
-        <v>202</v>
+      <c r="B228" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="D228">
         <v>4</v>
@@ -6518,8 +6579,8 @@
       <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="s">
-        <v>203</v>
+      <c r="B229" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -6538,8 +6599,8 @@
       <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="s">
-        <v>204</v>
+      <c r="B230" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D230">
         <v>3</v>
@@ -6558,8 +6619,8 @@
       <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="s">
-        <v>205</v>
+      <c r="B231" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -6578,8 +6639,8 @@
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="s">
-        <v>206</v>
+      <c r="B232" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -6598,8 +6659,8 @@
       <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="s">
-        <v>207</v>
+      <c r="B233" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D233">
         <v>2</v>
@@ -6618,8 +6679,8 @@
       <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="s">
-        <v>208</v>
+      <c r="B234" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D234">
         <v>2</v>
@@ -6638,8 +6699,8 @@
       <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="s">
-        <v>209</v>
+      <c r="B235" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D235">
         <v>3</v>
@@ -6658,8 +6719,8 @@
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="s">
-        <v>210</v>
+      <c r="B236" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D236">
         <v>4</v>
@@ -6678,8 +6739,8 @@
       <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="s">
-        <v>211</v>
+      <c r="B237" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D237">
         <v>2</v>
@@ -6698,8 +6759,8 @@
       <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="s">
-        <v>522</v>
+      <c r="B238" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="D238">
         <v>3</v>
@@ -6718,8 +6779,8 @@
       <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="s">
-        <v>523</v>
+      <c r="B239" s="5" t="s">
+        <v>506</v>
       </c>
       <c r="D239">
         <v>3</v>
@@ -6738,8 +6799,8 @@
       <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="s">
-        <v>212</v>
+      <c r="B240" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="C240">
         <v>3</v>
@@ -6755,8 +6816,8 @@
       <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="s">
-        <v>213</v>
+      <c r="B241" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D241">
         <v>4</v>
@@ -6775,8 +6836,8 @@
       <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="s">
-        <v>214</v>
+      <c r="B242" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C242">
         <v>4</v>
@@ -6792,8 +6853,8 @@
       <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="s">
-        <v>495</v>
+      <c r="B243" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="D243">
         <v>3</v>
@@ -6812,8 +6873,8 @@
       <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="s">
-        <v>215</v>
+      <c r="B244" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -6832,8 +6893,8 @@
       <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="s">
-        <v>216</v>
+      <c r="B245" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -6852,8 +6913,8 @@
       <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="s">
-        <v>217</v>
+      <c r="B246" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="D246">
         <v>2</v>
@@ -6872,8 +6933,8 @@
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="s">
-        <v>218</v>
+      <c r="B247" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="D247">
         <v>4</v>
@@ -6892,8 +6953,8 @@
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="s">
-        <v>219</v>
+      <c r="B248" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D248">
         <v>4</v>
@@ -6912,8 +6973,8 @@
       <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="s">
-        <v>220</v>
+      <c r="B249" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="D249">
         <v>4</v>
@@ -6932,8 +6993,8 @@
       <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="s">
-        <v>221</v>
+      <c r="B250" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -6952,8 +7013,8 @@
       <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="s">
-        <v>222</v>
+      <c r="B251" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="D251">
         <v>2</v>
@@ -6972,8 +7033,8 @@
       <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="s">
-        <v>223</v>
+      <c r="B252" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="C252">
         <v>2</v>
@@ -6989,8 +7050,8 @@
       <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="s">
-        <v>224</v>
+      <c r="B253" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -7006,8 +7067,8 @@
       <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="s">
-        <v>225</v>
+      <c r="B254" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D254">
         <v>2</v>
@@ -7026,8 +7087,8 @@
       <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="s">
-        <v>524</v>
+      <c r="B255" s="5" t="s">
+        <v>507</v>
       </c>
       <c r="D255">
         <v>2</v>
@@ -7046,8 +7107,8 @@
       <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="s">
-        <v>226</v>
+      <c r="B256" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="D256">
         <v>3</v>
@@ -7066,8 +7127,8 @@
       <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="s">
-        <v>227</v>
+      <c r="B257" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="D257">
         <v>3</v>
@@ -7086,8 +7147,8 @@
       <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="s">
-        <v>228</v>
+      <c r="B258" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="C258">
         <v>5</v>
@@ -7103,8 +7164,8 @@
       <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="s">
-        <v>229</v>
+      <c r="B259" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="D259">
         <v>3</v>
@@ -7123,8 +7184,8 @@
       <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="s">
-        <v>230</v>
+      <c r="B260" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D260">
         <v>3</v>
@@ -7143,8 +7204,8 @@
       <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="s">
-        <v>231</v>
+      <c r="B261" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="D261">
         <v>3</v>
@@ -7163,8 +7224,8 @@
       <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="s">
-        <v>232</v>
+      <c r="B262" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="D262">
         <v>4</v>
@@ -7183,8 +7244,8 @@
       <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="s">
-        <v>233</v>
+      <c r="B263" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -7203,8 +7264,8 @@
       <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="s">
-        <v>234</v>
+      <c r="B264" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="D264">
         <v>2</v>
@@ -7223,8 +7284,8 @@
       <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="s">
-        <v>235</v>
+      <c r="B265" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="C265">
         <v>3</v>
@@ -7240,8 +7301,8 @@
       <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="s">
-        <v>236</v>
+      <c r="B266" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="D266">
         <v>3</v>
@@ -7260,8 +7321,8 @@
       <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="s">
-        <v>237</v>
+      <c r="B267" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D267">
         <v>2</v>
@@ -7280,8 +7341,8 @@
       <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="s">
-        <v>238</v>
+      <c r="B268" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="D268">
         <v>2</v>
@@ -7300,8 +7361,8 @@
       <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="s">
-        <v>470</v>
+      <c r="B269" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -7320,8 +7381,8 @@
       <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="s">
-        <v>239</v>
+      <c r="B270" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="D270">
         <v>2</v>
@@ -7340,8 +7401,8 @@
       <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="s">
-        <v>240</v>
+      <c r="B271" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -7360,8 +7421,8 @@
       <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="s">
-        <v>241</v>
+      <c r="B272" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -7380,8 +7441,8 @@
       <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="s">
-        <v>242</v>
+      <c r="B273" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -7400,8 +7461,8 @@
       <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="s">
-        <v>243</v>
+      <c r="B274" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -7420,8 +7481,8 @@
       <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="s">
-        <v>244</v>
+      <c r="B275" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="F275">
         <v>3</v>
@@ -7437,8 +7498,8 @@
       <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="s">
-        <v>245</v>
+      <c r="B276" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -7457,8 +7518,8 @@
       <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="s">
-        <v>246</v>
+      <c r="B277" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D277">
         <v>3</v>
@@ -7477,8 +7538,8 @@
       <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="s">
-        <v>247</v>
+      <c r="B278" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="D278">
         <v>2</v>
@@ -7497,8 +7558,8 @@
       <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="s">
-        <v>248</v>
+      <c r="B279" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="D279">
         <v>4</v>
@@ -7517,8 +7578,8 @@
       <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="s">
-        <v>249</v>
+      <c r="B280" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="D280">
         <v>4</v>
@@ -7537,8 +7598,8 @@
       <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="s">
-        <v>250</v>
+      <c r="B281" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -7557,8 +7618,8 @@
       <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="s">
-        <v>251</v>
+      <c r="B282" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="D282">
         <v>5</v>
@@ -7577,8 +7638,8 @@
       <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="s">
-        <v>252</v>
+      <c r="B283" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="D283">
         <v>5</v>
@@ -7597,8 +7658,8 @@
       <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="s">
-        <v>253</v>
+      <c r="B284" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="D284">
         <v>5</v>
@@ -7617,8 +7678,8 @@
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="s">
-        <v>254</v>
+      <c r="B285" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -7637,8 +7698,8 @@
       <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="s">
-        <v>255</v>
+      <c r="B286" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="D286">
         <v>4</v>
@@ -7657,8 +7718,8 @@
       <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="s">
-        <v>256</v>
+      <c r="B287" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="D287">
         <v>2</v>
@@ -7677,8 +7738,8 @@
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="s">
-        <v>257</v>
+      <c r="B288" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="D288">
         <v>3</v>
@@ -7697,8 +7758,8 @@
       <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="s">
-        <v>258</v>
+      <c r="B289" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="D289">
         <v>3</v>
@@ -7717,8 +7778,8 @@
       <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="s">
-        <v>259</v>
+      <c r="B290" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -7737,8 +7798,8 @@
       <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="s">
-        <v>260</v>
+      <c r="B291" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="D291">
         <v>3</v>
@@ -7757,8 +7818,8 @@
       <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="s">
-        <v>261</v>
+      <c r="B292" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -7777,8 +7838,8 @@
       <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="s">
-        <v>262</v>
+      <c r="B293" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="D293">
         <v>2</v>
@@ -7797,8 +7858,8 @@
       <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="s">
-        <v>263</v>
+      <c r="B294" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -7817,8 +7878,8 @@
       <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="s">
-        <v>264</v>
+      <c r="B295" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="D295">
         <v>4</v>
@@ -7837,8 +7898,8 @@
       <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="s">
-        <v>265</v>
+      <c r="B296" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="D296">
         <v>2</v>
@@ -7857,8 +7918,8 @@
       <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="s">
-        <v>266</v>
+      <c r="B297" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="F297">
         <v>4</v>
@@ -7874,8 +7935,8 @@
       <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="s">
-        <v>267</v>
+      <c r="B298" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="D298">
         <v>3</v>
@@ -7894,8 +7955,8 @@
       <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="s">
-        <v>268</v>
+      <c r="B299" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D299">
         <v>2</v>
@@ -7917,8 +7978,8 @@
       <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="s">
-        <v>269</v>
+      <c r="B300" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="D300">
         <v>3</v>
@@ -7937,8 +7998,8 @@
       <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="s">
-        <v>270</v>
+      <c r="B301" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="C301">
         <v>4</v>
@@ -7957,8 +8018,8 @@
       <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="s">
-        <v>271</v>
+      <c r="B302" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="C302">
         <v>4</v>
@@ -7980,8 +8041,8 @@
       <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="s">
-        <v>272</v>
+      <c r="B303" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="D303">
         <v>3</v>
@@ -8000,8 +8061,8 @@
       <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="s">
-        <v>273</v>
+      <c r="B304" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -8020,8 +8081,8 @@
       <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="s">
-        <v>274</v>
+      <c r="B305" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -8040,8 +8101,8 @@
       <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="s">
-        <v>275</v>
+      <c r="B306" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="C306">
         <v>2</v>
@@ -8057,8 +8118,8 @@
       <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="s">
-        <v>276</v>
+      <c r="B307" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="C307">
         <v>3</v>
@@ -8074,8 +8135,8 @@
       <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="s">
-        <v>277</v>
+      <c r="B308" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -8091,8 +8152,8 @@
       <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="s">
-        <v>278</v>
+      <c r="B309" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -8108,8 +8169,8 @@
       <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="s">
-        <v>279</v>
+      <c r="B310" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -8125,8 +8186,8 @@
       <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="s">
-        <v>525</v>
+      <c r="B311" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="C311">
         <v>3</v>
@@ -8142,8 +8203,8 @@
       <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="s">
-        <v>280</v>
+      <c r="B312" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="D312">
         <v>3</v>
@@ -8162,8 +8223,8 @@
       <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="s">
-        <v>281</v>
+      <c r="B313" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="D313">
         <v>3</v>
@@ -8182,8 +8243,8 @@
       <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="s">
-        <v>282</v>
+      <c r="B314" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="D314">
         <v>4</v>
@@ -8202,8 +8263,8 @@
       <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="s">
-        <v>283</v>
+      <c r="B315" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="D315">
         <v>4</v>
@@ -8222,8 +8283,8 @@
       <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="s">
-        <v>284</v>
+      <c r="B316" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="D316">
         <v>4</v>
@@ -8242,8 +8303,8 @@
       <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="s">
-        <v>285</v>
+      <c r="B317" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="D317">
         <v>4</v>
@@ -8262,8 +8323,8 @@
       <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="s">
-        <v>286</v>
+      <c r="B318" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -8282,8 +8343,8 @@
       <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="s">
-        <v>287</v>
+      <c r="B319" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="D319">
         <v>2</v>
@@ -8302,8 +8363,8 @@
       <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="s">
-        <v>288</v>
+      <c r="B320" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="D320">
         <v>2</v>
@@ -8322,8 +8383,8 @@
       <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="s">
-        <v>289</v>
+      <c r="B321" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="C321">
         <v>2</v>
@@ -8339,8 +8400,8 @@
       <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="s">
-        <v>290</v>
+      <c r="B322" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="C322">
         <v>3</v>
@@ -8356,8 +8417,8 @@
       <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="s">
-        <v>526</v>
+      <c r="B323" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="D323">
         <v>2</v>
@@ -8376,8 +8437,8 @@
       <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="s">
-        <v>527</v>
+      <c r="B324" s="5" t="s">
+        <v>510</v>
       </c>
       <c r="D324">
         <v>4</v>
@@ -8396,8 +8457,8 @@
       <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="s">
-        <v>528</v>
+      <c r="B325" s="5" t="s">
+        <v>511</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -8416,8 +8477,8 @@
       <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="s">
-        <v>291</v>
+      <c r="B326" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="D326">
         <v>2</v>
@@ -8436,8 +8497,8 @@
       <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="s">
-        <v>292</v>
+      <c r="B327" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="D327">
         <v>2</v>
@@ -8456,8 +8517,8 @@
       <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="s">
-        <v>293</v>
+      <c r="B328" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="C328">
         <v>3</v>
@@ -8473,8 +8534,8 @@
       <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="s">
-        <v>294</v>
+      <c r="B329" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="D329">
         <v>2</v>
@@ -8493,8 +8554,8 @@
       <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="s">
-        <v>295</v>
+      <c r="B330" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="D330">
         <v>4</v>
@@ -8513,8 +8574,8 @@
       <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="s">
-        <v>296</v>
+      <c r="B331" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -8530,8 +8591,8 @@
       <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="s">
-        <v>297</v>
+      <c r="B332" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -8550,8 +8611,8 @@
       <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="s">
-        <v>298</v>
+      <c r="B333" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -8570,8 +8631,8 @@
       <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="s">
-        <v>299</v>
+      <c r="B334" s="5" t="s">
+        <v>530</v>
       </c>
       <c r="D334">
         <v>4</v>
@@ -8590,8 +8651,8 @@
       <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="s">
-        <v>300</v>
+      <c r="B335" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -8610,8 +8671,8 @@
       <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="s">
-        <v>496</v>
+      <c r="B336" s="5" t="s">
+        <v>479</v>
       </c>
       <c r="C336">
         <v>3</v>
@@ -8627,8 +8688,8 @@
       <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="s">
-        <v>497</v>
+      <c r="B337" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="C337">
         <v>4</v>
@@ -8644,8 +8705,8 @@
       <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="s">
-        <v>498</v>
+      <c r="B338" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="C338">
         <v>3</v>
@@ -8661,8 +8722,8 @@
       <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="s">
-        <v>499</v>
+      <c r="B339" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="C339">
         <v>3</v>
@@ -8678,8 +8739,8 @@
       <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="s">
-        <v>301</v>
+      <c r="B340" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="D340">
         <v>2</v>
@@ -8698,8 +8759,8 @@
       <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="s">
-        <v>45</v>
+      <c r="B341" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D341">
         <v>2</v>
@@ -8718,8 +8779,8 @@
       <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="s">
-        <v>302</v>
+      <c r="B342" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="D342">
         <v>3</v>
@@ -8738,8 +8799,8 @@
       <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="s">
-        <v>303</v>
+      <c r="B343" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="D343">
         <v>5</v>
@@ -8758,8 +8819,8 @@
       <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="s">
-        <v>304</v>
+      <c r="B344" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -8778,8 +8839,8 @@
       <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="s">
-        <v>305</v>
+      <c r="B345" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="D345">
         <v>2</v>
@@ -8798,8 +8859,8 @@
       <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="s">
-        <v>306</v>
+      <c r="B346" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="C346">
         <v>3</v>
@@ -8815,8 +8876,8 @@
       <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="s">
-        <v>532</v>
+      <c r="B347" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="D347">
         <v>2</v>
@@ -8835,8 +8896,8 @@
       <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="s">
-        <v>307</v>
+      <c r="B348" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="D348">
         <v>3</v>
@@ -8855,8 +8916,8 @@
       <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="s">
-        <v>308</v>
+      <c r="B349" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -8875,8 +8936,8 @@
       <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="s">
-        <v>309</v>
+      <c r="B350" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="D350">
         <v>2</v>
@@ -8895,8 +8956,8 @@
       <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="s">
-        <v>310</v>
+      <c r="B351" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -8915,8 +8976,8 @@
       <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="s">
-        <v>311</v>
+      <c r="B352" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="C352">
         <v>3</v>
@@ -8932,8 +8993,8 @@
       <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="s">
-        <v>312</v>
+      <c r="B353" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="D353">
         <v>3</v>
@@ -8952,8 +9013,8 @@
       <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="s">
-        <v>313</v>
+      <c r="B354" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="D354">
         <v>4</v>
@@ -8972,8 +9033,8 @@
       <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="s">
-        <v>467</v>
+      <c r="B355" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="D355">
         <v>4</v>
@@ -8992,8 +9053,8 @@
       <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="s">
-        <v>314</v>
+      <c r="B356" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="D356">
         <v>4</v>
@@ -9012,8 +9073,8 @@
       <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="s">
-        <v>315</v>
+      <c r="B357" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="D357">
         <v>3</v>
@@ -9032,8 +9093,8 @@
       <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="s">
-        <v>316</v>
+      <c r="B358" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="C358">
         <v>4</v>
@@ -9049,8 +9110,8 @@
       <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="s">
-        <v>317</v>
+      <c r="B359" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="C359">
         <v>3</v>
@@ -9066,8 +9127,8 @@
       <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="s">
-        <v>472</v>
+      <c r="B360" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="C360">
         <v>3</v>
@@ -9083,8 +9144,8 @@
       <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="s">
-        <v>471</v>
+      <c r="B361" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="D361">
         <v>3</v>
@@ -9103,8 +9164,8 @@
       <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="s">
-        <v>318</v>
+      <c r="B362" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="D362">
         <v>2</v>
@@ -9123,8 +9184,8 @@
       <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="s">
-        <v>319</v>
+      <c r="B363" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="D363">
         <v>3</v>
@@ -9143,8 +9204,8 @@
       <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="s">
-        <v>473</v>
+      <c r="B364" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="D364">
         <v>2</v>
@@ -9163,8 +9224,8 @@
       <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="s">
-        <v>320</v>
+      <c r="B365" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="D365">
         <v>2</v>
@@ -9183,8 +9244,8 @@
       <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="s">
-        <v>321</v>
+      <c r="B366" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="D366">
         <v>2</v>
@@ -9203,8 +9264,8 @@
       <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" t="s">
-        <v>322</v>
+      <c r="B367" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="D367">
         <v>2</v>
@@ -9223,8 +9284,8 @@
       <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" t="s">
-        <v>323</v>
+      <c r="B368" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -9243,8 +9304,8 @@
       <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" t="s">
-        <v>324</v>
+      <c r="B369" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -9263,8 +9324,8 @@
       <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" t="s">
-        <v>529</v>
+      <c r="B370" s="5" t="s">
+        <v>512</v>
       </c>
       <c r="D370">
         <v>2</v>
@@ -9283,8 +9344,8 @@
       <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" t="s">
-        <v>530</v>
+      <c r="B371" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="D371">
         <v>2</v>
@@ -9303,8 +9364,8 @@
       <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" t="s">
-        <v>474</v>
+      <c r="B372" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="C372">
         <v>2</v>
@@ -9326,8 +9387,8 @@
       <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" t="s">
-        <v>325</v>
+      <c r="B373" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -9346,8 +9407,8 @@
       <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374" t="s">
-        <v>326</v>
+      <c r="B374" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="D374">
         <v>3</v>
@@ -9366,8 +9427,8 @@
       <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375" t="s">
-        <v>327</v>
+      <c r="B375" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="D375">
         <v>3</v>
@@ -9386,8 +9447,8 @@
       <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" t="s">
-        <v>328</v>
+      <c r="B376" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="D376">
         <v>2</v>
@@ -9406,8 +9467,8 @@
       <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377" t="s">
-        <v>329</v>
+      <c r="B377" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="D377">
         <v>3</v>
@@ -9426,8 +9487,8 @@
       <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378" t="s">
-        <v>330</v>
+      <c r="B378" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -9446,8 +9507,8 @@
       <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" t="s">
-        <v>331</v>
+      <c r="B379" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="D379">
         <v>2</v>
@@ -9466,8 +9527,8 @@
       <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" t="s">
-        <v>332</v>
+      <c r="B380" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="D380">
         <v>2</v>
@@ -9486,8 +9547,8 @@
       <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" t="s">
-        <v>333</v>
+      <c r="B381" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="D381">
         <v>2</v>
@@ -9506,8 +9567,8 @@
       <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" t="s">
-        <v>334</v>
+      <c r="B382" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D382">
         <v>2</v>
@@ -9526,8 +9587,8 @@
       <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383" t="s">
-        <v>335</v>
+      <c r="B383" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -9543,8 +9604,8 @@
       <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384" t="s">
-        <v>336</v>
+      <c r="B384" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -9563,8 +9624,8 @@
       <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385" t="s">
-        <v>337</v>
+      <c r="B385" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="D385">
         <v>2</v>
@@ -9583,8 +9644,8 @@
       <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386" t="s">
-        <v>338</v>
+      <c r="B386" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="D386">
         <v>2</v>
@@ -9603,8 +9664,8 @@
       <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" t="s">
-        <v>339</v>
+      <c r="B387" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="D387">
         <v>2</v>
@@ -9623,8 +9684,8 @@
       <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" t="s">
-        <v>340</v>
+      <c r="B388" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="D388">
         <v>3</v>
@@ -9643,8 +9704,8 @@
       <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389" t="s">
-        <v>341</v>
+      <c r="B389" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -9663,8 +9724,8 @@
       <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" t="s">
-        <v>500</v>
+      <c r="B390" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="D390">
         <v>4</v>
@@ -9683,8 +9744,8 @@
       <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" t="s">
-        <v>501</v>
+      <c r="B391" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="D391">
         <v>4</v>
@@ -9703,8 +9764,8 @@
       <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" t="s">
-        <v>342</v>
+      <c r="B392" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="D392">
         <v>3</v>
@@ -9723,8 +9784,8 @@
       <c r="A393" s="1">
         <v>391</v>
       </c>
-      <c r="B393" t="s">
-        <v>343</v>
+      <c r="B393" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="D393">
         <v>3</v>
@@ -9743,8 +9804,8 @@
       <c r="A394" s="1">
         <v>392</v>
       </c>
-      <c r="B394" t="s">
-        <v>344</v>
+      <c r="B394" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="C394">
         <v>4</v>
@@ -9760,8 +9821,8 @@
       <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B395" t="s">
-        <v>345</v>
+      <c r="B395" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="D395">
         <v>2</v>
@@ -9780,8 +9841,8 @@
       <c r="A396" s="1">
         <v>394</v>
       </c>
-      <c r="B396" t="s">
-        <v>346</v>
+      <c r="B396" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="D396">
         <v>3</v>
@@ -9800,8 +9861,8 @@
       <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B397" t="s">
-        <v>347</v>
+      <c r="B397" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -9820,8 +9881,8 @@
       <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398" t="s">
-        <v>348</v>
+      <c r="B398" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="D398">
         <v>3</v>
@@ -9840,8 +9901,8 @@
       <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399" t="s">
-        <v>349</v>
+      <c r="B399" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="D399">
         <v>3</v>
@@ -9860,8 +9921,8 @@
       <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B400" t="s">
-        <v>350</v>
+      <c r="B400" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="D400">
         <v>3</v>
@@ -9880,8 +9941,8 @@
       <c r="A401" s="1">
         <v>399</v>
       </c>
-      <c r="B401" t="s">
-        <v>351</v>
+      <c r="B401" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="D401">
         <v>2</v>
@@ -9900,8 +9961,8 @@
       <c r="A402" s="1">
         <v>400</v>
       </c>
-      <c r="B402" t="s">
-        <v>352</v>
+      <c r="B402" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="D402">
         <v>5</v>
@@ -9920,8 +9981,8 @@
       <c r="A403" s="1">
         <v>401</v>
       </c>
-      <c r="B403" t="s">
-        <v>353</v>
+      <c r="B403" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="C403">
         <v>4</v>
@@ -9937,8 +9998,8 @@
       <c r="A404" s="1">
         <v>402</v>
       </c>
-      <c r="B404" t="s">
-        <v>354</v>
+      <c r="B404" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -9957,8 +10018,8 @@
       <c r="A405" s="1">
         <v>403</v>
       </c>
-      <c r="B405" t="s">
-        <v>400</v>
+      <c r="B405" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="D405">
         <v>2</v>
@@ -9977,8 +10038,8 @@
       <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B406" t="s">
-        <v>355</v>
+      <c r="B406" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="D406">
         <v>4</v>
@@ -10000,8 +10061,8 @@
       <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B407" t="s">
-        <v>356</v>
+      <c r="B407" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="D407">
         <v>4</v>
@@ -10020,8 +10081,8 @@
       <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B408" t="s">
-        <v>357</v>
+      <c r="B408" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="D408">
         <v>4</v>
@@ -10043,8 +10104,8 @@
       <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B409" t="s">
-        <v>358</v>
+      <c r="B409" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -10063,8 +10124,8 @@
       <c r="A410" s="1">
         <v>408</v>
       </c>
-      <c r="B410" t="s">
-        <v>359</v>
+      <c r="B410" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -10083,8 +10144,8 @@
       <c r="A411" s="1">
         <v>409</v>
       </c>
-      <c r="B411" t="s">
-        <v>360</v>
+      <c r="B411" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="D411">
         <v>3</v>
@@ -10103,8 +10164,8 @@
       <c r="A412" s="1">
         <v>410</v>
       </c>
-      <c r="B412" t="s">
-        <v>361</v>
+      <c r="B412" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="D412">
         <v>2</v>
@@ -10123,8 +10184,8 @@
       <c r="A413" s="1">
         <v>411</v>
       </c>
-      <c r="B413" t="s">
-        <v>362</v>
+      <c r="B413" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="D413">
         <v>3</v>
@@ -10143,8 +10204,8 @@
       <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B414" t="s">
-        <v>363</v>
+      <c r="B414" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="D414">
         <v>4</v>
@@ -10163,8 +10224,8 @@
       <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415" t="s">
-        <v>364</v>
+      <c r="B415" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="D415">
         <v>4</v>
@@ -10183,8 +10244,8 @@
       <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416" t="s">
-        <v>365</v>
+      <c r="B416" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="C416">
         <v>3</v>
@@ -10200,8 +10261,8 @@
       <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417" t="s">
-        <v>502</v>
+      <c r="B417" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="C417">
         <v>3</v>
@@ -10217,8 +10278,8 @@
       <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B418" t="s">
-        <v>503</v>
+      <c r="B418" s="5" t="s">
+        <v>486</v>
       </c>
       <c r="C418">
         <v>4</v>
@@ -10234,8 +10295,8 @@
       <c r="A419" s="1">
         <v>417</v>
       </c>
-      <c r="B419" t="s">
-        <v>504</v>
+      <c r="B419" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="C419">
         <v>4</v>
@@ -10251,8 +10312,8 @@
       <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420" t="s">
-        <v>505</v>
+      <c r="B420" s="5" t="s">
+        <v>488</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -10271,8 +10332,8 @@
       <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421" t="s">
-        <v>506</v>
+      <c r="B421" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -10291,8 +10352,8 @@
       <c r="A422" s="1">
         <v>420</v>
       </c>
-      <c r="B422" t="s">
-        <v>366</v>
+      <c r="B422" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="D422">
         <v>3</v>
@@ -10311,8 +10372,8 @@
       <c r="A423" s="1">
         <v>421</v>
       </c>
-      <c r="B423" t="s">
-        <v>367</v>
+      <c r="B423" s="5" t="s">
+        <v>353</v>
       </c>
       <c r="C423">
         <v>3</v>
@@ -10328,8 +10389,8 @@
       <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B424" t="s">
-        <v>368</v>
+      <c r="B424" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="D424">
         <v>2</v>
@@ -10348,8 +10409,8 @@
       <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425" t="s">
-        <v>369</v>
+      <c r="B425" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="D425">
         <v>3</v>
@@ -10368,8 +10429,8 @@
       <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B426" t="s">
-        <v>370</v>
+      <c r="B426" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="D426">
         <v>2</v>
@@ -10388,8 +10449,8 @@
       <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427" t="s">
-        <v>371</v>
+      <c r="B427" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -10408,8 +10469,8 @@
       <c r="A428" s="1">
         <v>426</v>
       </c>
-      <c r="B428" t="s">
-        <v>372</v>
+      <c r="B428" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="C428">
         <v>2</v>
@@ -10425,8 +10486,8 @@
       <c r="A429" s="1">
         <v>427</v>
       </c>
-      <c r="B429" t="s">
-        <v>373</v>
+      <c r="B429" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="D429">
         <v>3</v>
@@ -10445,8 +10506,8 @@
       <c r="A430" s="1">
         <v>428</v>
       </c>
-      <c r="B430" t="s">
-        <v>374</v>
+      <c r="B430" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="C430">
         <v>2</v>
@@ -10462,8 +10523,8 @@
       <c r="A431" s="1">
         <v>429</v>
       </c>
-      <c r="B431" t="s">
-        <v>375</v>
+      <c r="B431" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="D431">
         <v>2</v>
@@ -10482,8 +10543,8 @@
       <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B432" t="s">
-        <v>376</v>
+      <c r="B432" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="C432">
         <v>3</v>
@@ -10499,8 +10560,8 @@
       <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433" t="s">
-        <v>377</v>
+      <c r="B433" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="D433">
         <v>2</v>
@@ -10519,8 +10580,8 @@
       <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434" t="s">
-        <v>378</v>
+      <c r="B434" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="D434">
         <v>2</v>
@@ -10539,8 +10600,8 @@
       <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" t="s">
-        <v>379</v>
+      <c r="B435" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="C435">
         <v>5</v>
@@ -10556,8 +10617,8 @@
       <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B436" t="s">
-        <v>380</v>
+      <c r="B436" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="D436">
         <v>2</v>
@@ -10576,8 +10637,8 @@
       <c r="A437" s="1">
         <v>435</v>
       </c>
-      <c r="B437" t="s">
-        <v>381</v>
+      <c r="B437" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="D437">
         <v>3</v>
@@ -10596,8 +10657,8 @@
       <c r="A438" s="1">
         <v>436</v>
       </c>
-      <c r="B438" t="s">
-        <v>382</v>
+      <c r="B438" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="D438">
         <v>3</v>
@@ -10616,8 +10677,8 @@
       <c r="A439" s="1">
         <v>437</v>
       </c>
-      <c r="B439" t="s">
-        <v>383</v>
+      <c r="B439" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="D439">
         <v>4</v>
@@ -10636,8 +10697,8 @@
       <c r="A440" s="1">
         <v>438</v>
       </c>
-      <c r="B440" t="s">
-        <v>384</v>
+      <c r="B440" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -10656,8 +10717,8 @@
       <c r="A441" s="1">
         <v>439</v>
       </c>
-      <c r="B441" t="s">
-        <v>385</v>
+      <c r="B441" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="D441">
         <v>2</v>
@@ -10676,8 +10737,8 @@
       <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B442" t="s">
-        <v>386</v>
+      <c r="B442" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -10696,8 +10757,8 @@
       <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B443" t="s">
-        <v>387</v>
+      <c r="B443" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="D443">
         <v>3</v>
@@ -10716,8 +10777,8 @@
       <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B444" t="s">
-        <v>388</v>
+      <c r="B444" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="D444">
         <v>2</v>
@@ -10736,8 +10797,8 @@
       <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B445" t="s">
-        <v>389</v>
+      <c r="B445" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="D445">
         <v>2</v>
@@ -10756,8 +10817,8 @@
       <c r="A446" s="1">
         <v>444</v>
       </c>
-      <c r="B446" t="s">
-        <v>390</v>
+      <c r="B446" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="D446">
         <v>3</v>
@@ -10776,8 +10837,8 @@
       <c r="A447" s="1">
         <v>445</v>
       </c>
-      <c r="B447" t="s">
-        <v>391</v>
+      <c r="B447" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="D447">
         <v>2</v>
@@ -10796,8 +10857,8 @@
       <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B448" t="s">
-        <v>392</v>
+      <c r="B448" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="D448">
         <v>2</v>
@@ -10816,8 +10877,8 @@
       <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B449" t="s">
-        <v>534</v>
+      <c r="B449" s="5" t="s">
+        <v>517</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -10836,8 +10897,8 @@
       <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B450" t="s">
-        <v>393</v>
+      <c r="B450" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="C450">
         <v>5</v>
@@ -10853,8 +10914,8 @@
       <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451" t="s">
-        <v>394</v>
+      <c r="B451" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="D451">
         <v>2</v>
@@ -10873,8 +10934,8 @@
       <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452" t="s">
-        <v>395</v>
+      <c r="B452" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="C452">
         <v>4</v>
@@ -10896,8 +10957,8 @@
       <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453" t="s">
-        <v>396</v>
+      <c r="B453" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="D453">
         <v>3</v>
@@ -10916,8 +10977,8 @@
       <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454" t="s">
-        <v>397</v>
+      <c r="B454" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="D454">
         <v>3</v>
@@ -10936,8 +10997,8 @@
       <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B455" t="s">
-        <v>398</v>
+      <c r="B455" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="D455">
         <v>2</v>
@@ -10956,8 +11017,8 @@
       <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B456" t="s">
-        <v>399</v>
+      <c r="B456" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="D456">
         <v>3</v>
@@ -10976,8 +11037,8 @@
       <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457" t="s">
-        <v>401</v>
+      <c r="B457" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="C457">
         <v>4</v>
@@ -10993,8 +11054,8 @@
       <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B458" t="s">
-        <v>535</v>
+      <c r="B458" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -11013,8 +11074,8 @@
       <c r="A459" s="1">
         <v>457</v>
       </c>
-      <c r="B459" t="s">
-        <v>536</v>
+      <c r="B459" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="D459">
         <v>2</v>
@@ -11033,8 +11094,8 @@
       <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B460" t="s">
-        <v>537</v>
+      <c r="B460" s="5" t="s">
+        <v>520</v>
       </c>
       <c r="D460">
         <v>3</v>
@@ -11053,8 +11114,8 @@
       <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B461" t="s">
-        <v>402</v>
+      <c r="B461" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="D461">
         <v>3</v>
@@ -11073,8 +11134,8 @@
       <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B462" t="s">
-        <v>403</v>
+      <c r="B462" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="D462">
         <v>2</v>
@@ -11093,8 +11154,8 @@
       <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B463" t="s">
-        <v>404</v>
+      <c r="B463" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="D463">
         <v>1</v>
@@ -11113,8 +11174,8 @@
       <c r="A464" s="1">
         <v>462</v>
       </c>
-      <c r="B464" t="s">
-        <v>405</v>
+      <c r="B464" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="D464">
         <v>3</v>
@@ -11133,8 +11194,8 @@
       <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B465" t="s">
-        <v>406</v>
+      <c r="B465" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="D465">
         <v>2</v>
@@ -11153,8 +11214,8 @@
       <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B466" t="s">
-        <v>407</v>
+      <c r="B466" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="D466">
         <v>4</v>
@@ -11173,8 +11234,8 @@
       <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B467" t="s">
-        <v>408</v>
+      <c r="B467" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="D467">
         <v>4</v>
@@ -11193,8 +11254,8 @@
       <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B468" t="s">
-        <v>409</v>
+      <c r="B468" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -11213,8 +11274,8 @@
       <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469" t="s">
-        <v>410</v>
+      <c r="B469" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="D469">
         <v>4</v>
@@ -11233,8 +11294,8 @@
       <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470" t="s">
-        <v>411</v>
+      <c r="B470" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="C470">
         <v>3</v>
@@ -11250,8 +11311,8 @@
       <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471" t="s">
-        <v>412</v>
+      <c r="B471" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="C471">
         <v>2</v>
@@ -11267,8 +11328,8 @@
       <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472" t="s">
-        <v>538</v>
+      <c r="B472" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="C472">
         <v>4</v>
@@ -11284,8 +11345,8 @@
       <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B473" t="s">
-        <v>413</v>
+      <c r="B473" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="D473">
         <v>3</v>
@@ -11304,8 +11365,8 @@
       <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B474" t="s">
-        <v>414</v>
+      <c r="B474" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="D474">
         <v>3</v>
@@ -11324,8 +11385,8 @@
       <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B475" t="s">
-        <v>415</v>
+      <c r="B475" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="D475">
         <v>3</v>
@@ -11344,8 +11405,8 @@
       <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B476" t="s">
-        <v>416</v>
+      <c r="B476" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="D476">
         <v>3</v>
@@ -11364,8 +11425,8 @@
       <c r="A477" s="1">
         <v>475</v>
       </c>
-      <c r="B477" t="s">
-        <v>417</v>
+      <c r="B477" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -11384,8 +11445,8 @@
       <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478" t="s">
-        <v>418</v>
+      <c r="B478" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -11404,8 +11465,8 @@
       <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479" t="s">
-        <v>419</v>
+      <c r="B479" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="D479">
         <v>2</v>
@@ -11424,8 +11485,8 @@
       <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B480" t="s">
-        <v>420</v>
+      <c r="B480" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="D480">
         <v>4</v>
@@ -11444,8 +11505,8 @@
       <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B481" t="s">
-        <v>421</v>
+      <c r="B481" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="D481">
         <v>4</v>
@@ -11464,8 +11525,8 @@
       <c r="A482" s="1">
         <v>480</v>
       </c>
-      <c r="B482" t="s">
-        <v>422</v>
+      <c r="B482" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="D482">
         <v>4</v>
@@ -11484,8 +11545,8 @@
       <c r="A483" s="1">
         <v>481</v>
       </c>
-      <c r="B483" t="s">
-        <v>533</v>
+      <c r="B483" s="5" t="s">
+        <v>516</v>
       </c>
       <c r="D483">
         <v>2</v>
@@ -11504,8 +11565,8 @@
       <c r="A484" s="1">
         <v>482</v>
       </c>
-      <c r="B484" t="s">
-        <v>423</v>
+      <c r="B484" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C484">
         <v>3</v>
@@ -11521,8 +11582,8 @@
       <c r="A485" s="1">
         <v>483</v>
       </c>
-      <c r="B485" t="s">
-        <v>424</v>
+      <c r="B485" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="D485">
         <v>1</v>
@@ -11541,8 +11602,8 @@
       <c r="A486" s="1">
         <v>484</v>
       </c>
-      <c r="B486" t="s">
-        <v>425</v>
+      <c r="B486" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="D486">
         <v>2</v>
@@ -11561,8 +11622,8 @@
       <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B487" t="s">
-        <v>426</v>
+      <c r="B487" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="D487">
         <v>4</v>
@@ -11581,8 +11642,8 @@
       <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488" t="s">
-        <v>427</v>
+      <c r="B488" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="D488">
         <v>3</v>
@@ -11601,8 +11662,8 @@
       <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489" t="s">
-        <v>428</v>
+      <c r="B489" s="5" t="s">
+        <v>411</v>
       </c>
       <c r="C489">
         <v>3</v>
@@ -11618,8 +11679,8 @@
       <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490" t="s">
-        <v>429</v>
+      <c r="B490" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="C490">
         <v>4</v>
@@ -11635,8 +11696,8 @@
       <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B491" t="s">
-        <v>430</v>
+      <c r="B491" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="C491">
         <v>5</v>
@@ -11652,8 +11713,8 @@
       <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B492" t="s">
-        <v>148</v>
+      <c r="B492" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C492">
         <v>2</v>
@@ -11669,8 +11730,8 @@
       <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B493" t="s">
-        <v>431</v>
+      <c r="B493" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="C493">
         <v>2</v>
@@ -11686,8 +11747,8 @@
       <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B494" t="s">
-        <v>475</v>
+      <c r="B494" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="D494">
         <v>3</v>
@@ -11706,8 +11767,8 @@
       <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B495" t="s">
-        <v>432</v>
+      <c r="B495" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="D495">
         <v>4</v>
@@ -11726,8 +11787,8 @@
       <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496" t="s">
-        <v>433</v>
+      <c r="B496" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="C496">
         <v>4</v>
@@ -11743,8 +11804,8 @@
       <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497" t="s">
-        <v>434</v>
+      <c r="B497" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="C497">
         <v>3</v>
@@ -11760,8 +11821,8 @@
       <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498" t="s">
-        <v>435</v>
+      <c r="B498" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="D498">
         <v>3</v>
@@ -11780,8 +11841,8 @@
       <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499" t="s">
-        <v>436</v>
+      <c r="B499" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="D499">
         <v>5</v>
@@ -11800,8 +11861,8 @@
       <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B500" t="s">
-        <v>539</v>
+      <c r="B500" s="5" t="s">
+        <v>522</v>
       </c>
       <c r="D500">
         <v>3</v>
@@ -11820,8 +11881,8 @@
       <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B501" t="s">
-        <v>437</v>
+      <c r="B501" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="D501">
         <v>3</v>
@@ -11840,8 +11901,8 @@
       <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B502" t="s">
-        <v>507</v>
+      <c r="B502" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="C502">
         <v>2</v>
@@ -11857,8 +11918,8 @@
       <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B503" t="s">
-        <v>508</v>
+      <c r="B503" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="C503">
         <v>3</v>
@@ -11874,8 +11935,8 @@
       <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B504" t="s">
-        <v>438</v>
+      <c r="B504" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="D504">
         <v>1</v>
@@ -11894,8 +11955,8 @@
       <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505" t="s">
-        <v>439</v>
+      <c r="B505" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="D505">
         <v>1</v>
@@ -11914,8 +11975,8 @@
       <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506" t="s">
-        <v>440</v>
+      <c r="B506" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="D506">
         <v>1</v>
@@ -11934,8 +11995,8 @@
       <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507" t="s">
-        <v>441</v>
+      <c r="B507" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="D507">
         <v>3</v>
@@ -11954,8 +12015,8 @@
       <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508" t="s">
-        <v>442</v>
+      <c r="B508" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="D508">
         <v>3</v>
@@ -11974,8 +12035,8 @@
       <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B509" t="s">
-        <v>443</v>
+      <c r="B509" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="D509">
         <v>3</v>
@@ -11994,8 +12055,8 @@
       <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B510" t="s">
-        <v>444</v>
+      <c r="B510" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="D510">
         <v>2</v>
@@ -12014,8 +12075,8 @@
       <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B511" t="s">
-        <v>445</v>
+      <c r="B511" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="D511">
         <v>2</v>
@@ -12034,8 +12095,8 @@
       <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B512" t="s">
-        <v>446</v>
+      <c r="B512" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="D512">
         <v>4</v>
@@ -12054,8 +12115,8 @@
       <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B513" t="s">
-        <v>447</v>
+      <c r="B513" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="D513">
         <v>3</v>
@@ -12074,8 +12135,8 @@
       <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514" t="s">
-        <v>540</v>
+      <c r="B514" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="C514">
         <v>2</v>
@@ -12091,8 +12152,8 @@
       <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515" t="s">
-        <v>448</v>
+      <c r="B515" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="D515">
         <v>1</v>
@@ -12111,8 +12172,8 @@
       <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516" t="s">
-        <v>449</v>
+      <c r="B516" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="D516">
         <v>1</v>
@@ -12131,8 +12192,8 @@
       <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517" t="s">
-        <v>450</v>
+      <c r="B517" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="D517">
         <v>3</v>
@@ -12151,8 +12212,8 @@
       <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B518" t="s">
-        <v>451</v>
+      <c r="B518" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="D518">
         <v>4</v>
@@ -12171,8 +12232,8 @@
       <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B519" t="s">
-        <v>452</v>
+      <c r="B519" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="D519">
         <v>1</v>
@@ -12191,8 +12252,8 @@
       <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B520" t="s">
-        <v>453</v>
+      <c r="B520" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="D520">
         <v>4</v>
@@ -12211,8 +12272,8 @@
       <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B521" t="s">
-        <v>454</v>
+      <c r="B521" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="C521">
         <v>4</v>
@@ -12228,8 +12289,8 @@
       <c r="A522" s="1">
         <v>520</v>
       </c>
-      <c r="B522" t="s">
-        <v>476</v>
+      <c r="B522" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -12248,8 +12309,8 @@
       <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B523" t="s">
-        <v>455</v>
+      <c r="B523" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="D523">
         <v>2</v>
@@ -12268,8 +12329,8 @@
       <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B524" t="s">
-        <v>456</v>
+      <c r="B524" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="C524">
         <v>2</v>
@@ -12285,8 +12346,8 @@
       <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B525" t="s">
-        <v>458</v>
+      <c r="B525" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="C525">
         <v>2</v>
@@ -12302,8 +12363,8 @@
       <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B526" t="s">
-        <v>459</v>
+      <c r="B526" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="C526">
         <v>3</v>
@@ -12319,8 +12380,8 @@
       <c r="A527" s="1">
         <v>525</v>
       </c>
-      <c r="B527" t="s">
-        <v>457</v>
+      <c r="B527" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="C527">
         <v>3</v>
@@ -12336,8 +12397,8 @@
       <c r="A528" s="1">
         <v>526</v>
       </c>
-      <c r="B528" t="s">
-        <v>460</v>
+      <c r="B528" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="D528">
         <v>3</v>
@@ -12356,8 +12417,8 @@
       <c r="A529" s="1">
         <v>527</v>
       </c>
-      <c r="B529" t="s">
-        <v>461</v>
+      <c r="B529" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="C529">
         <v>2</v>
@@ -12373,8 +12434,8 @@
       <c r="A530" s="1">
         <v>528</v>
       </c>
-      <c r="B530" t="s">
-        <v>462</v>
+      <c r="B530" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="D530">
         <v>3</v>
@@ -12393,8 +12454,8 @@
       <c r="A531" s="1">
         <v>529</v>
       </c>
-      <c r="B531" t="s">
-        <v>463</v>
+      <c r="B531" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="D531">
         <v>2</v>
@@ -12413,8 +12474,8 @@
       <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B532" t="s">
-        <v>464</v>
+      <c r="B532" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="C532">
         <v>2</v>
@@ -12430,8 +12491,8 @@
       <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B533" t="s">
-        <v>509</v>
+      <c r="B533" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="D533">
         <v>3</v>
@@ -12450,8 +12511,8 @@
       <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B534" t="s">
-        <v>510</v>
+      <c r="B534" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D534">
         <v>2</v>

--- a/Naver_Liquor_Wiki/naver_wiki_total.xlsx
+++ b/Naver_Liquor_Wiki/naver_wiki_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1Carbon\Hee\ML_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50866E-F988-4546-B19E-A652B5997AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C27EF-C472-4EFB-9909-D0E472692D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1968" yWindow="-10296" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1484,12 +1484,6 @@
     <t>서주16</t>
   </si>
   <si>
-    <t>예천주만월24</t>
-  </si>
-  <si>
-    <t>예천주만월40</t>
-  </si>
-  <si>
     <t>예천주사월24</t>
   </si>
   <si>
@@ -1718,6 +1712,14 @@
   </si>
   <si>
     <t>index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예천주복만월24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예천주복만월40</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1808,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1817,14 +1819,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2163,22 +2160,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K534"/>
+  <dimension ref="A1:J534"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="L332" sqref="L332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2202,14 +2199,13 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
@@ -2225,11 +2221,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
@@ -2245,11 +2241,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
@@ -2265,11 +2261,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="D5">
@@ -2285,11 +2281,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
@@ -2305,11 +2301,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
@@ -2325,11 +2321,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>448</v>
       </c>
       <c r="C8">
@@ -2342,11 +2338,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>449</v>
       </c>
       <c r="D9">
@@ -2365,11 +2361,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>451</v>
       </c>
       <c r="D10">
@@ -2385,11 +2381,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="D11">
@@ -2405,11 +2401,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="D12">
@@ -2425,11 +2421,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="D13">
@@ -2445,11 +2441,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
@@ -2465,11 +2461,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="D15">
@@ -2485,11 +2481,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="D16">
@@ -2509,7 +2505,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17">
@@ -2526,7 +2522,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="D18">
@@ -2546,8 +2542,8 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>496</v>
+      <c r="B19" t="s">
+        <v>494</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2563,7 +2559,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="D20">
@@ -2583,7 +2579,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21">
@@ -2600,7 +2596,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>460</v>
       </c>
       <c r="D22">
@@ -2620,7 +2616,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
@@ -2637,7 +2633,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
@@ -2654,7 +2650,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
@@ -2671,7 +2667,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="D26">
@@ -2691,7 +2687,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="D27">
@@ -2711,7 +2707,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2728,8 +2724,8 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>514</v>
+      <c r="B29" t="s">
+        <v>512</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2748,7 +2744,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
@@ -2765,7 +2761,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>461</v>
       </c>
       <c r="D31">
@@ -2785,7 +2781,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>462</v>
       </c>
       <c r="C32">
@@ -2802,7 +2798,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>463</v>
       </c>
       <c r="C33">
@@ -2819,7 +2815,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>464</v>
       </c>
       <c r="C34">
@@ -2836,7 +2832,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>465</v>
       </c>
       <c r="C35">
@@ -2853,7 +2849,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>31</v>
       </c>
       <c r="C36">
@@ -2870,7 +2866,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="D37">
@@ -2890,7 +2886,7 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>33</v>
       </c>
       <c r="D38">
@@ -2910,7 +2906,7 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>34</v>
       </c>
       <c r="D39">
@@ -2930,7 +2926,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
       <c r="D40">
@@ -2950,7 +2946,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>36</v>
       </c>
       <c r="D41">
@@ -2970,8 +2966,8 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>528</v>
+      <c r="B42" t="s">
+        <v>526</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2987,8 +2983,8 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>529</v>
+      <c r="B43" t="s">
+        <v>527</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -3004,7 +3000,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>37</v>
       </c>
       <c r="D44">
@@ -3024,7 +3020,7 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>38</v>
       </c>
       <c r="D45">
@@ -3044,7 +3040,7 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>39</v>
       </c>
       <c r="D46">
@@ -3064,7 +3060,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>40</v>
       </c>
       <c r="D47">
@@ -3084,7 +3080,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
       <c r="D48">
@@ -3104,7 +3100,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>42</v>
       </c>
       <c r="D49">
@@ -3124,7 +3120,7 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>44</v>
       </c>
       <c r="C50">
@@ -3141,7 +3137,7 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>45</v>
       </c>
       <c r="D51">
@@ -3161,7 +3157,7 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" t="s">
         <v>49</v>
       </c>
       <c r="D52">
@@ -3181,7 +3177,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" t="s">
         <v>50</v>
       </c>
       <c r="D53">
@@ -3201,7 +3197,7 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" t="s">
         <v>46</v>
       </c>
       <c r="D54">
@@ -3221,7 +3217,7 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" t="s">
         <v>47</v>
       </c>
       <c r="D55">
@@ -3241,7 +3237,7 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" t="s">
         <v>48</v>
       </c>
       <c r="D56">
@@ -3261,7 +3257,7 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" t="s">
         <v>51</v>
       </c>
       <c r="D57">
@@ -3281,7 +3277,7 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" t="s">
         <v>52</v>
       </c>
       <c r="D58">
@@ -3301,7 +3297,7 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" t="s">
         <v>53</v>
       </c>
       <c r="D59">
@@ -3321,7 +3317,7 @@
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" t="s">
         <v>54</v>
       </c>
       <c r="D60">
@@ -3341,8 +3337,8 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>495</v>
+      <c r="B61" t="s">
+        <v>493</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -3358,8 +3354,8 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>494</v>
+      <c r="B62" t="s">
+        <v>492</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -3375,7 +3371,7 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" t="s">
         <v>55</v>
       </c>
       <c r="D63">
@@ -3395,7 +3391,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" t="s">
         <v>56</v>
       </c>
       <c r="D64">
@@ -3415,7 +3411,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" t="s">
         <v>57</v>
       </c>
       <c r="D65">
@@ -3435,7 +3431,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" t="s">
         <v>58</v>
       </c>
       <c r="D66">
@@ -3455,7 +3451,7 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>59</v>
       </c>
       <c r="D67">
@@ -3475,7 +3471,7 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>60</v>
       </c>
       <c r="D68">
@@ -3495,7 +3491,7 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>61</v>
       </c>
       <c r="D69">
@@ -3515,7 +3511,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" t="s">
         <v>62</v>
       </c>
       <c r="D70">
@@ -3535,7 +3531,7 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" t="s">
         <v>466</v>
       </c>
       <c r="D71">
@@ -3555,7 +3551,7 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" t="s">
         <v>467</v>
       </c>
       <c r="C72">
@@ -3572,7 +3568,7 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" t="s">
         <v>63</v>
       </c>
       <c r="D73">
@@ -3592,7 +3588,7 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>64</v>
       </c>
       <c r="D74">
@@ -3612,7 +3608,7 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>65</v>
       </c>
       <c r="D75">
@@ -3632,7 +3628,7 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>66</v>
       </c>
       <c r="D76">
@@ -3652,7 +3648,7 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>67</v>
       </c>
       <c r="D77">
@@ -3672,7 +3668,7 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>68</v>
       </c>
       <c r="D78">
@@ -3692,7 +3688,7 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" t="s">
         <v>468</v>
       </c>
       <c r="D79">
@@ -3712,7 +3708,7 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>469</v>
       </c>
       <c r="D80">
@@ -3732,7 +3728,7 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" t="s">
         <v>69</v>
       </c>
       <c r="D81">
@@ -3752,7 +3748,7 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" t="s">
         <v>70</v>
       </c>
       <c r="D82">
@@ -3772,7 +3768,7 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" t="s">
         <v>71</v>
       </c>
       <c r="D83">
@@ -3792,7 +3788,7 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" t="s">
         <v>95</v>
       </c>
       <c r="C84">
@@ -3809,8 +3805,8 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>497</v>
+      <c r="B85" t="s">
+        <v>495</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -3826,8 +3822,8 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>498</v>
+      <c r="B86" t="s">
+        <v>496</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -3846,8 +3842,8 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>499</v>
+      <c r="B87" t="s">
+        <v>497</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -3866,7 +3862,7 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" t="s">
         <v>72</v>
       </c>
       <c r="D88">
@@ -3886,7 +3882,7 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" t="s">
         <v>73</v>
       </c>
       <c r="D89">
@@ -3906,7 +3902,7 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" t="s">
         <v>74</v>
       </c>
       <c r="D90">
@@ -3926,7 +3922,7 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" t="s">
         <v>75</v>
       </c>
       <c r="D91">
@@ -3946,7 +3942,7 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" t="s">
         <v>76</v>
       </c>
       <c r="D92">
@@ -3966,7 +3962,7 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" t="s">
         <v>77</v>
       </c>
       <c r="D93">
@@ -3986,7 +3982,7 @@
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" t="s">
         <v>78</v>
       </c>
       <c r="D94">
@@ -4006,7 +4002,7 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" t="s">
         <v>79</v>
       </c>
       <c r="D95">
@@ -4026,7 +4022,7 @@
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" t="s">
         <v>80</v>
       </c>
       <c r="D96">
@@ -4046,8 +4042,8 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>500</v>
+      <c r="B97" t="s">
+        <v>498</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4066,7 +4062,7 @@
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" t="s">
         <v>81</v>
       </c>
       <c r="D98">
@@ -4086,7 +4082,7 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" t="s">
         <v>82</v>
       </c>
       <c r="D99">
@@ -4106,7 +4102,7 @@
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" t="s">
         <v>83</v>
       </c>
       <c r="C100">
@@ -4123,7 +4119,7 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" t="s">
         <v>84</v>
       </c>
       <c r="D101">
@@ -4143,7 +4139,7 @@
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" t="s">
         <v>85</v>
       </c>
       <c r="D102">
@@ -4163,7 +4159,7 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" t="s">
         <v>86</v>
       </c>
       <c r="D103">
@@ -4183,7 +4179,7 @@
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" t="s">
         <v>87</v>
       </c>
       <c r="D104">
@@ -4203,7 +4199,7 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" t="s">
         <v>88</v>
       </c>
       <c r="D105">
@@ -4223,7 +4219,7 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" t="s">
         <v>89</v>
       </c>
       <c r="D106">
@@ -4243,7 +4239,7 @@
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" t="s">
         <v>90</v>
       </c>
       <c r="D107">
@@ -4263,7 +4259,7 @@
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" t="s">
         <v>91</v>
       </c>
       <c r="D108">
@@ -4283,7 +4279,7 @@
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" t="s">
         <v>92</v>
       </c>
       <c r="D109">
@@ -4303,7 +4299,7 @@
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" t="s">
         <v>470</v>
       </c>
       <c r="D110">
@@ -4323,7 +4319,7 @@
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" t="s">
         <v>471</v>
       </c>
       <c r="D111">
@@ -4343,7 +4339,7 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" t="s">
         <v>472</v>
       </c>
       <c r="D112">
@@ -4363,7 +4359,7 @@
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" t="s">
         <v>93</v>
       </c>
       <c r="D113">
@@ -4383,7 +4379,7 @@
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" t="s">
         <v>94</v>
       </c>
       <c r="D114">
@@ -4403,7 +4399,7 @@
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" t="s">
         <v>96</v>
       </c>
       <c r="C115">
@@ -4420,7 +4416,7 @@
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" t="s">
         <v>97</v>
       </c>
       <c r="C116">
@@ -4437,7 +4433,7 @@
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" t="s">
         <v>98</v>
       </c>
       <c r="D117">
@@ -4457,7 +4453,7 @@
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" t="s">
         <v>99</v>
       </c>
       <c r="D118">
@@ -4477,8 +4473,8 @@
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>524</v>
+      <c r="B119" t="s">
+        <v>522</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2">
@@ -4498,7 +4494,7 @@
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" t="s">
         <v>100</v>
       </c>
       <c r="D120">
@@ -4518,7 +4514,7 @@
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" t="s">
         <v>101</v>
       </c>
       <c r="D121">
@@ -4538,7 +4534,7 @@
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" t="s">
         <v>102</v>
       </c>
       <c r="C122">
@@ -4555,7 +4551,7 @@
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" t="s">
         <v>103</v>
       </c>
       <c r="C123">
@@ -4572,7 +4568,7 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" t="s">
         <v>104</v>
       </c>
       <c r="D124">
@@ -4592,7 +4588,7 @@
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" t="s">
         <v>105</v>
       </c>
       <c r="C125">
@@ -4609,7 +4605,7 @@
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" t="s">
         <v>106</v>
       </c>
       <c r="C126">
@@ -4626,7 +4622,7 @@
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" t="s">
         <v>107</v>
       </c>
       <c r="D127">
@@ -4646,7 +4642,7 @@
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" t="s">
         <v>108</v>
       </c>
       <c r="D128">
@@ -4666,7 +4662,7 @@
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" t="s">
         <v>109</v>
       </c>
       <c r="D129">
@@ -4686,7 +4682,7 @@
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" t="s">
         <v>110</v>
       </c>
       <c r="D130">
@@ -4706,7 +4702,7 @@
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" t="s">
         <v>111</v>
       </c>
       <c r="D131">
@@ -4726,8 +4722,8 @@
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>501</v>
+      <c r="B132" t="s">
+        <v>499</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -4743,7 +4739,7 @@
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" t="s">
         <v>473</v>
       </c>
       <c r="C133">
@@ -4760,7 +4756,7 @@
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" t="s">
         <v>474</v>
       </c>
       <c r="C134">
@@ -4777,7 +4773,7 @@
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" t="s">
         <v>112</v>
       </c>
       <c r="C135">
@@ -4794,7 +4790,7 @@
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" t="s">
         <v>113</v>
       </c>
       <c r="C136">
@@ -4811,7 +4807,7 @@
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" t="s">
         <v>114</v>
       </c>
       <c r="D137">
@@ -4831,7 +4827,7 @@
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" t="s">
         <v>115</v>
       </c>
       <c r="D138">
@@ -4851,7 +4847,7 @@
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" t="s">
         <v>116</v>
       </c>
       <c r="C139">
@@ -4868,7 +4864,7 @@
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" t="s">
         <v>117</v>
       </c>
       <c r="C140">
@@ -4885,8 +4881,8 @@
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>527</v>
+      <c r="B141" t="s">
+        <v>525</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -4905,7 +4901,7 @@
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" t="s">
         <v>120</v>
       </c>
       <c r="D142">
@@ -4925,7 +4921,7 @@
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" t="s">
         <v>118</v>
       </c>
       <c r="D143">
@@ -4945,7 +4941,7 @@
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" t="s">
         <v>119</v>
       </c>
       <c r="D144">
@@ -4965,7 +4961,7 @@
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" t="s">
         <v>121</v>
       </c>
       <c r="D145">
@@ -4985,7 +4981,7 @@
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" t="s">
         <v>122</v>
       </c>
       <c r="D146">
@@ -5005,7 +5001,7 @@
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" t="s">
         <v>123</v>
       </c>
       <c r="D147">
@@ -5025,7 +5021,7 @@
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" t="s">
         <v>475</v>
       </c>
       <c r="C148">
@@ -5042,7 +5038,7 @@
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" t="s">
         <v>124</v>
       </c>
       <c r="D149">
@@ -5062,7 +5058,7 @@
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" t="s">
         <v>125</v>
       </c>
       <c r="D150">
@@ -5082,7 +5078,7 @@
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" t="s">
         <v>126</v>
       </c>
       <c r="D151">
@@ -5102,7 +5098,7 @@
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" t="s">
         <v>127</v>
       </c>
       <c r="D152">
@@ -5122,7 +5118,7 @@
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" t="s">
         <v>128</v>
       </c>
       <c r="D153">
@@ -5142,7 +5138,7 @@
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" t="s">
         <v>129</v>
       </c>
       <c r="C154">
@@ -5159,7 +5155,7 @@
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" t="s">
         <v>130</v>
       </c>
       <c r="D155">
@@ -5179,7 +5175,7 @@
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" t="s">
         <v>131</v>
       </c>
       <c r="D156">
@@ -5196,8 +5192,8 @@
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="5" t="s">
-        <v>502</v>
+      <c r="B157" t="s">
+        <v>500</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -5213,7 +5209,7 @@
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" t="s">
         <v>132</v>
       </c>
       <c r="C158">
@@ -5230,7 +5226,7 @@
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" t="s">
         <v>133</v>
       </c>
       <c r="C159">
@@ -5247,7 +5243,7 @@
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" t="s">
         <v>134</v>
       </c>
       <c r="C160">
@@ -5264,7 +5260,7 @@
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" t="s">
         <v>135</v>
       </c>
       <c r="D161">
@@ -5284,7 +5280,7 @@
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" t="s">
         <v>136</v>
       </c>
       <c r="D162">
@@ -5304,7 +5300,7 @@
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" t="s">
         <v>137</v>
       </c>
       <c r="C163">
@@ -5321,7 +5317,7 @@
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" t="s">
         <v>138</v>
       </c>
       <c r="C164">
@@ -5338,7 +5334,7 @@
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" t="s">
         <v>139</v>
       </c>
       <c r="D165">
@@ -5358,7 +5354,7 @@
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" t="s">
         <v>140</v>
       </c>
       <c r="C166">
@@ -5375,7 +5371,7 @@
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" t="s">
         <v>141</v>
       </c>
       <c r="D167">
@@ -5395,7 +5391,7 @@
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" t="s">
         <v>142</v>
       </c>
       <c r="C168">
@@ -5412,7 +5408,7 @@
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" t="s">
         <v>143</v>
       </c>
       <c r="D169">
@@ -5432,7 +5428,7 @@
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" t="s">
         <v>145</v>
       </c>
       <c r="D170">
@@ -5452,7 +5448,7 @@
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" t="s">
         <v>146</v>
       </c>
       <c r="D171">
@@ -5472,7 +5468,7 @@
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" t="s">
         <v>476</v>
       </c>
       <c r="C172">
@@ -5489,7 +5485,7 @@
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" t="s">
         <v>477</v>
       </c>
       <c r="C173">
@@ -5506,7 +5502,7 @@
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" t="s">
         <v>147</v>
       </c>
       <c r="C174">
@@ -5523,7 +5519,7 @@
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" t="s">
         <v>148</v>
       </c>
       <c r="D175">
@@ -5543,7 +5539,7 @@
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" t="s">
         <v>149</v>
       </c>
       <c r="C176">
@@ -5560,7 +5556,7 @@
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" t="s">
         <v>150</v>
       </c>
       <c r="C177">
@@ -5577,7 +5573,7 @@
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" t="s">
         <v>151</v>
       </c>
       <c r="C178">
@@ -5594,8 +5590,8 @@
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="5" t="s">
-        <v>503</v>
+      <c r="B179" t="s">
+        <v>501</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -5614,8 +5610,8 @@
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>504</v>
+      <c r="B180" t="s">
+        <v>502</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -5634,8 +5630,8 @@
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="5" t="s">
-        <v>525</v>
+      <c r="B181" t="s">
+        <v>523</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -5654,8 +5650,8 @@
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="5" t="s">
-        <v>526</v>
+      <c r="B182" t="s">
+        <v>524</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -5674,7 +5670,7 @@
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" t="s">
         <v>152</v>
       </c>
       <c r="D183">
@@ -5694,7 +5690,7 @@
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" t="s">
         <v>153</v>
       </c>
       <c r="D184">
@@ -5714,7 +5710,7 @@
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" t="s">
         <v>154</v>
       </c>
       <c r="D185">
@@ -5734,7 +5730,7 @@
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" t="s">
         <v>155</v>
       </c>
       <c r="D186">
@@ -5754,7 +5750,7 @@
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" t="s">
         <v>156</v>
       </c>
       <c r="D187">
@@ -5774,7 +5770,7 @@
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" t="s">
         <v>452</v>
       </c>
       <c r="C188">
@@ -5791,7 +5787,7 @@
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" t="s">
         <v>157</v>
       </c>
       <c r="D189">
@@ -5811,7 +5807,7 @@
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" t="s">
         <v>158</v>
       </c>
       <c r="D190">
@@ -5831,7 +5827,7 @@
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" t="s">
         <v>159</v>
       </c>
       <c r="D191">
@@ -5851,7 +5847,7 @@
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" t="s">
         <v>160</v>
       </c>
       <c r="D192">
@@ -5871,7 +5867,7 @@
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" t="s">
         <v>161</v>
       </c>
       <c r="D193">
@@ -5891,7 +5887,7 @@
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" t="s">
         <v>162</v>
       </c>
       <c r="C194">
@@ -5911,7 +5907,7 @@
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" t="s">
         <v>163</v>
       </c>
       <c r="C195">
@@ -5928,7 +5924,7 @@
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" t="s">
         <v>164</v>
       </c>
       <c r="D196">
@@ -5948,7 +5944,7 @@
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" t="s">
         <v>165</v>
       </c>
       <c r="D197">
@@ -5968,7 +5964,7 @@
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" t="s">
         <v>166</v>
       </c>
       <c r="D198">
@@ -5988,7 +5984,7 @@
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" t="s">
         <v>167</v>
       </c>
       <c r="D199">
@@ -6008,7 +6004,7 @@
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" t="s">
         <v>168</v>
       </c>
       <c r="D200">
@@ -6028,7 +6024,7 @@
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" t="s">
         <v>169</v>
       </c>
       <c r="D201">
@@ -6048,7 +6044,7 @@
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" t="s">
         <v>170</v>
       </c>
       <c r="D202">
@@ -6068,7 +6064,7 @@
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" t="s">
         <v>171</v>
       </c>
       <c r="D203">
@@ -6088,7 +6084,7 @@
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" t="s">
         <v>172</v>
       </c>
       <c r="D204">
@@ -6108,7 +6104,7 @@
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" t="s">
         <v>173</v>
       </c>
       <c r="D205">
@@ -6128,7 +6124,7 @@
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" t="s">
         <v>174</v>
       </c>
       <c r="D206">
@@ -6148,7 +6144,7 @@
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" t="s">
         <v>175</v>
       </c>
       <c r="D207">
@@ -6168,7 +6164,7 @@
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" t="s">
         <v>176</v>
       </c>
       <c r="D208">
@@ -6188,7 +6184,7 @@
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" t="s">
         <v>177</v>
       </c>
       <c r="D209">
@@ -6208,7 +6204,7 @@
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" t="s">
         <v>178</v>
       </c>
       <c r="D210">
@@ -6228,7 +6224,7 @@
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" t="s">
         <v>179</v>
       </c>
       <c r="D211">
@@ -6248,7 +6244,7 @@
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" t="s">
         <v>180</v>
       </c>
       <c r="D212">
@@ -6268,8 +6264,8 @@
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" s="5" t="s">
-        <v>533</v>
+      <c r="B213" t="s">
+        <v>531</v>
       </c>
       <c r="C213">
         <v>4</v>
@@ -6285,7 +6281,7 @@
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" t="s">
         <v>181</v>
       </c>
       <c r="D214">
@@ -6305,7 +6301,7 @@
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" t="s">
         <v>182</v>
       </c>
       <c r="C215">
@@ -6322,7 +6318,7 @@
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" t="s">
         <v>183</v>
       </c>
       <c r="D216">
@@ -6342,7 +6338,7 @@
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" t="s">
         <v>184</v>
       </c>
       <c r="D217">
@@ -6362,7 +6358,7 @@
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" t="s">
         <v>185</v>
       </c>
       <c r="D218">
@@ -6382,7 +6378,7 @@
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" t="s">
         <v>186</v>
       </c>
       <c r="D219">
@@ -6402,7 +6398,7 @@
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" t="s">
         <v>187</v>
       </c>
       <c r="D220">
@@ -6422,7 +6418,7 @@
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" t="s">
         <v>188</v>
       </c>
       <c r="D221">
@@ -6442,7 +6438,7 @@
       <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" t="s">
         <v>189</v>
       </c>
       <c r="D222">
@@ -6462,8 +6458,8 @@
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="5" t="s">
-        <v>536</v>
+      <c r="B223" t="s">
+        <v>534</v>
       </c>
       <c r="D223">
         <v>4</v>
@@ -6482,7 +6478,7 @@
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" t="s">
         <v>190</v>
       </c>
       <c r="C224">
@@ -6499,7 +6495,7 @@
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" t="s">
         <v>191</v>
       </c>
       <c r="D225">
@@ -6519,7 +6515,7 @@
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" t="s">
         <v>192</v>
       </c>
       <c r="D226">
@@ -6539,7 +6535,7 @@
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" t="s">
         <v>193</v>
       </c>
       <c r="D227">
@@ -6559,7 +6555,7 @@
       <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" t="s">
         <v>194</v>
       </c>
       <c r="D228">
@@ -6579,7 +6575,7 @@
       <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="B229" t="s">
         <v>195</v>
       </c>
       <c r="D229">
@@ -6599,7 +6595,7 @@
       <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" t="s">
         <v>196</v>
       </c>
       <c r="D230">
@@ -6619,7 +6615,7 @@
       <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" t="s">
         <v>197</v>
       </c>
       <c r="D231">
@@ -6639,7 +6635,7 @@
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" t="s">
         <v>198</v>
       </c>
       <c r="D232">
@@ -6659,7 +6655,7 @@
       <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" t="s">
         <v>199</v>
       </c>
       <c r="D233">
@@ -6679,7 +6675,7 @@
       <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" t="s">
         <v>200</v>
       </c>
       <c r="D234">
@@ -6699,7 +6695,7 @@
       <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B235" t="s">
         <v>201</v>
       </c>
       <c r="D235">
@@ -6719,7 +6715,7 @@
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" t="s">
         <v>202</v>
       </c>
       <c r="D236">
@@ -6739,7 +6735,7 @@
       <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" t="s">
         <v>203</v>
       </c>
       <c r="D237">
@@ -6759,8 +6755,8 @@
       <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" s="5" t="s">
-        <v>505</v>
+      <c r="B238" t="s">
+        <v>503</v>
       </c>
       <c r="D238">
         <v>3</v>
@@ -6779,8 +6775,8 @@
       <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" s="5" t="s">
-        <v>506</v>
+      <c r="B239" t="s">
+        <v>504</v>
       </c>
       <c r="D239">
         <v>3</v>
@@ -6799,7 +6795,7 @@
       <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" t="s">
         <v>204</v>
       </c>
       <c r="C240">
@@ -6816,7 +6812,7 @@
       <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" t="s">
         <v>205</v>
       </c>
       <c r="D241">
@@ -6836,7 +6832,7 @@
       <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" t="s">
         <v>206</v>
       </c>
       <c r="C242">
@@ -6853,7 +6849,7 @@
       <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" t="s">
         <v>478</v>
       </c>
       <c r="D243">
@@ -6873,7 +6869,7 @@
       <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" t="s">
         <v>207</v>
       </c>
       <c r="D244">
@@ -6893,7 +6889,7 @@
       <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" t="s">
         <v>208</v>
       </c>
       <c r="D245">
@@ -6913,7 +6909,7 @@
       <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" t="s">
         <v>209</v>
       </c>
       <c r="D246">
@@ -6933,7 +6929,7 @@
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="B247" t="s">
         <v>210</v>
       </c>
       <c r="D247">
@@ -6953,7 +6949,7 @@
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B248" t="s">
         <v>211</v>
       </c>
       <c r="D248">
@@ -6973,7 +6969,7 @@
       <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B249" t="s">
         <v>212</v>
       </c>
       <c r="D249">
@@ -6993,7 +6989,7 @@
       <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" t="s">
         <v>213</v>
       </c>
       <c r="D250">
@@ -7013,7 +7009,7 @@
       <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B251" t="s">
         <v>214</v>
       </c>
       <c r="D251">
@@ -7033,7 +7029,7 @@
       <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="B252" t="s">
         <v>215</v>
       </c>
       <c r="C252">
@@ -7050,7 +7046,7 @@
       <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="B253" t="s">
         <v>216</v>
       </c>
       <c r="C253">
@@ -7067,7 +7063,7 @@
       <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" t="s">
         <v>217</v>
       </c>
       <c r="D254">
@@ -7087,8 +7083,8 @@
       <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" s="5" t="s">
-        <v>507</v>
+      <c r="B255" t="s">
+        <v>505</v>
       </c>
       <c r="D255">
         <v>2</v>
@@ -7107,7 +7103,7 @@
       <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B256" t="s">
         <v>218</v>
       </c>
       <c r="D256">
@@ -7127,7 +7123,7 @@
       <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B257" t="s">
         <v>219</v>
       </c>
       <c r="D257">
@@ -7147,7 +7143,7 @@
       <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B258" t="s">
         <v>220</v>
       </c>
       <c r="C258">
@@ -7164,7 +7160,7 @@
       <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" t="s">
         <v>221</v>
       </c>
       <c r="D259">
@@ -7184,7 +7180,7 @@
       <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B260" t="s">
         <v>222</v>
       </c>
       <c r="D260">
@@ -7204,7 +7200,7 @@
       <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B261" t="s">
         <v>223</v>
       </c>
       <c r="D261">
@@ -7224,7 +7220,7 @@
       <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B262" t="s">
         <v>224</v>
       </c>
       <c r="D262">
@@ -7244,8 +7240,8 @@
       <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" s="5" t="s">
-        <v>540</v>
+      <c r="B263" t="s">
+        <v>538</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -7264,7 +7260,7 @@
       <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" t="s">
         <v>225</v>
       </c>
       <c r="D264">
@@ -7284,7 +7280,7 @@
       <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B265" t="s">
         <v>226</v>
       </c>
       <c r="C265">
@@ -7301,7 +7297,7 @@
       <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B266" t="s">
         <v>227</v>
       </c>
       <c r="D266">
@@ -7321,7 +7317,7 @@
       <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" t="s">
         <v>228</v>
       </c>
       <c r="D267">
@@ -7341,7 +7337,7 @@
       <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B268" t="s">
         <v>229</v>
       </c>
       <c r="D268">
@@ -7361,7 +7357,7 @@
       <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" s="5" t="s">
+      <c r="B269" t="s">
         <v>453</v>
       </c>
       <c r="D269">
@@ -7381,7 +7377,7 @@
       <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B270" t="s">
         <v>230</v>
       </c>
       <c r="D270">
@@ -7401,7 +7397,7 @@
       <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" s="5" t="s">
+      <c r="B271" t="s">
         <v>231</v>
       </c>
       <c r="D271">
@@ -7421,7 +7417,7 @@
       <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" t="s">
         <v>232</v>
       </c>
       <c r="D272">
@@ -7441,7 +7437,7 @@
       <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B273" t="s">
         <v>233</v>
       </c>
       <c r="D273">
@@ -7461,7 +7457,7 @@
       <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="B274" t="s">
         <v>234</v>
       </c>
       <c r="D274">
@@ -7481,7 +7477,7 @@
       <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="B275" t="s">
         <v>235</v>
       </c>
       <c r="F275">
@@ -7498,7 +7494,7 @@
       <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="B276" t="s">
         <v>236</v>
       </c>
       <c r="D276">
@@ -7518,7 +7514,7 @@
       <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B277" t="s">
         <v>237</v>
       </c>
       <c r="D277">
@@ -7538,7 +7534,7 @@
       <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="B278" t="s">
         <v>238</v>
       </c>
       <c r="D278">
@@ -7558,7 +7554,7 @@
       <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" t="s">
         <v>239</v>
       </c>
       <c r="D279">
@@ -7578,7 +7574,7 @@
       <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" t="s">
         <v>240</v>
       </c>
       <c r="D280">
@@ -7598,7 +7594,7 @@
       <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" t="s">
         <v>241</v>
       </c>
       <c r="D281">
@@ -7618,7 +7614,7 @@
       <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="B282" t="s">
         <v>242</v>
       </c>
       <c r="D282">
@@ -7638,7 +7634,7 @@
       <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B283" t="s">
         <v>243</v>
       </c>
       <c r="D283">
@@ -7658,7 +7654,7 @@
       <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="B284" t="s">
         <v>244</v>
       </c>
       <c r="D284">
@@ -7678,7 +7674,7 @@
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" t="s">
         <v>245</v>
       </c>
       <c r="D285">
@@ -7698,7 +7694,7 @@
       <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="B286" t="s">
         <v>246</v>
       </c>
       <c r="D286">
@@ -7718,7 +7714,7 @@
       <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" t="s">
         <v>247</v>
       </c>
       <c r="D287">
@@ -7738,7 +7734,7 @@
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="B288" t="s">
         <v>248</v>
       </c>
       <c r="D288">
@@ -7758,7 +7754,7 @@
       <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="B289" t="s">
         <v>249</v>
       </c>
       <c r="D289">
@@ -7778,7 +7774,7 @@
       <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" t="s">
         <v>250</v>
       </c>
       <c r="D290">
@@ -7798,7 +7794,7 @@
       <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="B291" t="s">
         <v>251</v>
       </c>
       <c r="D291">
@@ -7818,7 +7814,7 @@
       <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="B292" t="s">
         <v>252</v>
       </c>
       <c r="D292">
@@ -7838,7 +7834,7 @@
       <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B293" t="s">
         <v>253</v>
       </c>
       <c r="D293">
@@ -7858,7 +7854,7 @@
       <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" s="5" t="s">
+      <c r="B294" t="s">
         <v>254</v>
       </c>
       <c r="D294">
@@ -7878,7 +7874,7 @@
       <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" s="5" t="s">
+      <c r="B295" t="s">
         <v>255</v>
       </c>
       <c r="D295">
@@ -7898,7 +7894,7 @@
       <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="B296" t="s">
         <v>256</v>
       </c>
       <c r="D296">
@@ -7918,7 +7914,7 @@
       <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" s="5" t="s">
+      <c r="B297" t="s">
         <v>257</v>
       </c>
       <c r="F297">
@@ -7935,7 +7931,7 @@
       <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="B298" t="s">
         <v>258</v>
       </c>
       <c r="D298">
@@ -7955,7 +7951,7 @@
       <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="B299" t="s">
         <v>259</v>
       </c>
       <c r="D299">
@@ -7978,7 +7974,7 @@
       <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="B300" t="s">
         <v>260</v>
       </c>
       <c r="D300">
@@ -7998,7 +7994,7 @@
       <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" s="5" t="s">
+      <c r="B301" t="s">
         <v>261</v>
       </c>
       <c r="C301">
@@ -8018,7 +8014,7 @@
       <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" s="5" t="s">
+      <c r="B302" t="s">
         <v>262</v>
       </c>
       <c r="C302">
@@ -8041,7 +8037,7 @@
       <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="B303" t="s">
         <v>263</v>
       </c>
       <c r="D303">
@@ -8061,7 +8057,7 @@
       <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" s="5" t="s">
+      <c r="B304" t="s">
         <v>264</v>
       </c>
       <c r="D304">
@@ -8081,7 +8077,7 @@
       <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" s="5" t="s">
+      <c r="B305" t="s">
         <v>265</v>
       </c>
       <c r="D305">
@@ -8101,7 +8097,7 @@
       <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" s="5" t="s">
+      <c r="B306" t="s">
         <v>266</v>
       </c>
       <c r="C306">
@@ -8118,7 +8114,7 @@
       <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" s="5" t="s">
+      <c r="B307" t="s">
         <v>267</v>
       </c>
       <c r="C307">
@@ -8135,7 +8131,7 @@
       <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="B308" t="s">
         <v>268</v>
       </c>
       <c r="C308">
@@ -8152,7 +8148,7 @@
       <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" s="5" t="s">
+      <c r="B309" t="s">
         <v>269</v>
       </c>
       <c r="C309">
@@ -8169,7 +8165,7 @@
       <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" s="5" t="s">
+      <c r="B310" t="s">
         <v>270</v>
       </c>
       <c r="C310">
@@ -8186,8 +8182,8 @@
       <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" s="5" t="s">
-        <v>508</v>
+      <c r="B311" t="s">
+        <v>506</v>
       </c>
       <c r="C311">
         <v>3</v>
@@ -8203,7 +8199,7 @@
       <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="B312" t="s">
         <v>271</v>
       </c>
       <c r="D312">
@@ -8223,7 +8219,7 @@
       <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" s="5" t="s">
+      <c r="B313" t="s">
         <v>272</v>
       </c>
       <c r="D313">
@@ -8243,7 +8239,7 @@
       <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" s="5" t="s">
+      <c r="B314" t="s">
         <v>273</v>
       </c>
       <c r="D314">
@@ -8263,7 +8259,7 @@
       <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" s="5" t="s">
+      <c r="B315" t="s">
         <v>274</v>
       </c>
       <c r="D315">
@@ -8283,7 +8279,7 @@
       <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" s="5" t="s">
+      <c r="B316" t="s">
         <v>275</v>
       </c>
       <c r="D316">
@@ -8303,7 +8299,7 @@
       <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="B317" t="s">
         <v>276</v>
       </c>
       <c r="D317">
@@ -8323,7 +8319,7 @@
       <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" s="5" t="s">
+      <c r="B318" t="s">
         <v>277</v>
       </c>
       <c r="D318">
@@ -8343,7 +8339,7 @@
       <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" s="5" t="s">
+      <c r="B319" t="s">
         <v>278</v>
       </c>
       <c r="D319">
@@ -8363,7 +8359,7 @@
       <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" s="5" t="s">
+      <c r="B320" t="s">
         <v>279</v>
       </c>
       <c r="D320">
@@ -8383,7 +8379,7 @@
       <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" s="5" t="s">
+      <c r="B321" t="s">
         <v>280</v>
       </c>
       <c r="C321">
@@ -8400,7 +8396,7 @@
       <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="B322" t="s">
         <v>281</v>
       </c>
       <c r="C322">
@@ -8417,8 +8413,8 @@
       <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" s="5" t="s">
-        <v>509</v>
+      <c r="B323" t="s">
+        <v>507</v>
       </c>
       <c r="D323">
         <v>2</v>
@@ -8437,8 +8433,8 @@
       <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" s="5" t="s">
-        <v>510</v>
+      <c r="B324" t="s">
+        <v>508</v>
       </c>
       <c r="D324">
         <v>4</v>
@@ -8457,8 +8453,8 @@
       <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" s="5" t="s">
-        <v>511</v>
+      <c r="B325" t="s">
+        <v>509</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -8477,7 +8473,7 @@
       <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="B326" t="s">
         <v>282</v>
       </c>
       <c r="D326">
@@ -8497,7 +8493,7 @@
       <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="B327" t="s">
         <v>283</v>
       </c>
       <c r="D327">
@@ -8517,7 +8513,7 @@
       <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" s="5" t="s">
+      <c r="B328" t="s">
         <v>284</v>
       </c>
       <c r="C328">
@@ -8534,7 +8530,7 @@
       <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" s="5" t="s">
+      <c r="B329" t="s">
         <v>285</v>
       </c>
       <c r="D329">
@@ -8554,7 +8550,7 @@
       <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" s="5" t="s">
+      <c r="B330" t="s">
         <v>286</v>
       </c>
       <c r="D330">
@@ -8574,7 +8570,7 @@
       <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="B331" t="s">
         <v>287</v>
       </c>
       <c r="C331">
@@ -8591,7 +8587,7 @@
       <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" s="5" t="s">
+      <c r="B332" t="s">
         <v>288</v>
       </c>
       <c r="D332">
@@ -8611,7 +8607,7 @@
       <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" s="5" t="s">
+      <c r="B333" t="s">
         <v>289</v>
       </c>
       <c r="D333">
@@ -8631,8 +8627,8 @@
       <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" s="5" t="s">
-        <v>530</v>
+      <c r="B334" t="s">
+        <v>528</v>
       </c>
       <c r="D334">
         <v>4</v>
@@ -8651,7 +8647,7 @@
       <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" s="5" t="s">
+      <c r="B335" t="s">
         <v>290</v>
       </c>
       <c r="D335">
@@ -8671,8 +8667,8 @@
       <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" s="5" t="s">
-        <v>479</v>
+      <c r="B336" t="s">
+        <v>540</v>
       </c>
       <c r="C336">
         <v>3</v>
@@ -8688,8 +8684,8 @@
       <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" s="5" t="s">
-        <v>480</v>
+      <c r="B337" t="s">
+        <v>541</v>
       </c>
       <c r="C337">
         <v>4</v>
@@ -8705,8 +8701,8 @@
       <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" s="5" t="s">
-        <v>481</v>
+      <c r="B338" t="s">
+        <v>479</v>
       </c>
       <c r="C338">
         <v>3</v>
@@ -8722,8 +8718,8 @@
       <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" s="5" t="s">
-        <v>482</v>
+      <c r="B339" t="s">
+        <v>480</v>
       </c>
       <c r="C339">
         <v>3</v>
@@ -8739,7 +8735,7 @@
       <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" s="5" t="s">
+      <c r="B340" t="s">
         <v>291</v>
       </c>
       <c r="D340">
@@ -8759,7 +8755,7 @@
       <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="B341" t="s">
         <v>43</v>
       </c>
       <c r="D341">
@@ -8779,8 +8775,8 @@
       <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" s="5" t="s">
-        <v>531</v>
+      <c r="B342" t="s">
+        <v>529</v>
       </c>
       <c r="D342">
         <v>3</v>
@@ -8799,7 +8795,7 @@
       <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" s="5" t="s">
+      <c r="B343" t="s">
         <v>292</v>
       </c>
       <c r="D343">
@@ -8819,7 +8815,7 @@
       <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" s="5" t="s">
+      <c r="B344" t="s">
         <v>293</v>
       </c>
       <c r="D344">
@@ -8839,7 +8835,7 @@
       <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" s="5" t="s">
+      <c r="B345" t="s">
         <v>294</v>
       </c>
       <c r="D345">
@@ -8859,7 +8855,7 @@
       <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="B346" t="s">
         <v>295</v>
       </c>
       <c r="C346">
@@ -8876,8 +8872,8 @@
       <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" s="5" t="s">
-        <v>515</v>
+      <c r="B347" t="s">
+        <v>513</v>
       </c>
       <c r="D347">
         <v>2</v>
@@ -8896,7 +8892,7 @@
       <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" s="5" t="s">
+      <c r="B348" t="s">
         <v>296</v>
       </c>
       <c r="D348">
@@ -8916,7 +8912,7 @@
       <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="B349" t="s">
         <v>297</v>
       </c>
       <c r="D349">
@@ -8936,7 +8932,7 @@
       <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" s="5" t="s">
+      <c r="B350" t="s">
         <v>298</v>
       </c>
       <c r="D350">
@@ -8956,7 +8952,7 @@
       <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="B351" t="s">
         <v>299</v>
       </c>
       <c r="D351">
@@ -8976,7 +8972,7 @@
       <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="B352" t="s">
         <v>300</v>
       </c>
       <c r="C352">
@@ -8993,7 +8989,7 @@
       <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" s="5" t="s">
+      <c r="B353" t="s">
         <v>301</v>
       </c>
       <c r="D353">
@@ -9013,7 +9009,7 @@
       <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" s="5" t="s">
+      <c r="B354" t="s">
         <v>302</v>
       </c>
       <c r="D354">
@@ -9033,7 +9029,7 @@
       <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" s="5" t="s">
+      <c r="B355" t="s">
         <v>450</v>
       </c>
       <c r="D355">
@@ -9053,7 +9049,7 @@
       <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="B356" t="s">
         <v>303</v>
       </c>
       <c r="D356">
@@ -9073,7 +9069,7 @@
       <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" s="5" t="s">
+      <c r="B357" t="s">
         <v>304</v>
       </c>
       <c r="D357">
@@ -9093,7 +9089,7 @@
       <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="B358" t="s">
         <v>305</v>
       </c>
       <c r="C358">
@@ -9110,7 +9106,7 @@
       <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" s="5" t="s">
+      <c r="B359" t="s">
         <v>306</v>
       </c>
       <c r="C359">
@@ -9127,7 +9123,7 @@
       <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" s="5" t="s">
+      <c r="B360" t="s">
         <v>455</v>
       </c>
       <c r="C360">
@@ -9144,7 +9140,7 @@
       <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" s="5" t="s">
+      <c r="B361" t="s">
         <v>454</v>
       </c>
       <c r="D361">
@@ -9164,7 +9160,7 @@
       <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" s="5" t="s">
+      <c r="B362" t="s">
         <v>307</v>
       </c>
       <c r="D362">
@@ -9184,7 +9180,7 @@
       <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" s="5" t="s">
+      <c r="B363" t="s">
         <v>308</v>
       </c>
       <c r="D363">
@@ -9204,7 +9200,7 @@
       <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" s="5" t="s">
+      <c r="B364" t="s">
         <v>456</v>
       </c>
       <c r="D364">
@@ -9224,7 +9220,7 @@
       <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" s="5" t="s">
+      <c r="B365" t="s">
         <v>309</v>
       </c>
       <c r="D365">
@@ -9244,7 +9240,7 @@
       <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" s="5" t="s">
+      <c r="B366" t="s">
         <v>310</v>
       </c>
       <c r="D366">
@@ -9264,7 +9260,7 @@
       <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" s="5" t="s">
+      <c r="B367" t="s">
         <v>311</v>
       </c>
       <c r="D367">
@@ -9284,7 +9280,7 @@
       <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="B368" t="s">
         <v>312</v>
       </c>
       <c r="D368">
@@ -9304,7 +9300,7 @@
       <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="B369" t="s">
         <v>313</v>
       </c>
       <c r="D369">
@@ -9324,8 +9320,8 @@
       <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" s="5" t="s">
-        <v>512</v>
+      <c r="B370" t="s">
+        <v>510</v>
       </c>
       <c r="D370">
         <v>2</v>
@@ -9344,8 +9340,8 @@
       <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" s="5" t="s">
-        <v>513</v>
+      <c r="B371" t="s">
+        <v>511</v>
       </c>
       <c r="D371">
         <v>2</v>
@@ -9364,7 +9360,7 @@
       <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B372" t="s">
         <v>457</v>
       </c>
       <c r="C372">
@@ -9387,7 +9383,7 @@
       <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" s="5" t="s">
+      <c r="B373" t="s">
         <v>314</v>
       </c>
       <c r="D373">
@@ -9407,7 +9403,7 @@
       <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374" s="5" t="s">
+      <c r="B374" t="s">
         <v>315</v>
       </c>
       <c r="D374">
@@ -9427,7 +9423,7 @@
       <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375" s="5" t="s">
+      <c r="B375" t="s">
         <v>316</v>
       </c>
       <c r="D375">
@@ -9447,7 +9443,7 @@
       <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="B376" t="s">
         <v>317</v>
       </c>
       <c r="D376">
@@ -9467,7 +9463,7 @@
       <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377" s="5" t="s">
+      <c r="B377" t="s">
         <v>318</v>
       </c>
       <c r="D377">
@@ -9487,7 +9483,7 @@
       <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378" s="5" t="s">
+      <c r="B378" t="s">
         <v>319</v>
       </c>
       <c r="D378">
@@ -9507,7 +9503,7 @@
       <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="B379" t="s">
         <v>320</v>
       </c>
       <c r="D379">
@@ -9527,7 +9523,7 @@
       <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" s="5" t="s">
+      <c r="B380" t="s">
         <v>321</v>
       </c>
       <c r="D380">
@@ -9547,7 +9543,7 @@
       <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" s="5" t="s">
+      <c r="B381" t="s">
         <v>322</v>
       </c>
       <c r="D381">
@@ -9567,7 +9563,7 @@
       <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" s="5" t="s">
+      <c r="B382" t="s">
         <v>323</v>
       </c>
       <c r="D382">
@@ -9587,7 +9583,7 @@
       <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383" s="5" t="s">
+      <c r="B383" t="s">
         <v>324</v>
       </c>
       <c r="C383">
@@ -9604,7 +9600,7 @@
       <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384" s="5" t="s">
+      <c r="B384" t="s">
         <v>325</v>
       </c>
       <c r="D384">
@@ -9624,7 +9620,7 @@
       <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385" s="5" t="s">
+      <c r="B385" t="s">
         <v>326</v>
       </c>
       <c r="D385">
@@ -9644,7 +9640,7 @@
       <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386" s="5" t="s">
+      <c r="B386" t="s">
         <v>327</v>
       </c>
       <c r="D386">
@@ -9664,7 +9660,7 @@
       <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" s="5" t="s">
+      <c r="B387" t="s">
         <v>328</v>
       </c>
       <c r="D387">
@@ -9684,7 +9680,7 @@
       <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" s="5" t="s">
+      <c r="B388" t="s">
         <v>329</v>
       </c>
       <c r="D388">
@@ -9704,7 +9700,7 @@
       <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389" s="5" t="s">
+      <c r="B389" t="s">
         <v>330</v>
       </c>
       <c r="D389">
@@ -9724,8 +9720,8 @@
       <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" s="5" t="s">
-        <v>483</v>
+      <c r="B390" t="s">
+        <v>481</v>
       </c>
       <c r="D390">
         <v>4</v>
@@ -9744,8 +9740,8 @@
       <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" s="5" t="s">
-        <v>484</v>
+      <c r="B391" t="s">
+        <v>482</v>
       </c>
       <c r="D391">
         <v>4</v>
@@ -9764,7 +9760,7 @@
       <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="B392" t="s">
         <v>331</v>
       </c>
       <c r="D392">
@@ -9784,7 +9780,7 @@
       <c r="A393" s="1">
         <v>391</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="B393" t="s">
         <v>332</v>
       </c>
       <c r="D393">
@@ -9804,7 +9800,7 @@
       <c r="A394" s="1">
         <v>392</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="B394" t="s">
         <v>333</v>
       </c>
       <c r="C394">
@@ -9821,7 +9817,7 @@
       <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="B395" t="s">
         <v>334</v>
       </c>
       <c r="D395">
@@ -9841,7 +9837,7 @@
       <c r="A396" s="1">
         <v>394</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="B396" t="s">
         <v>335</v>
       </c>
       <c r="D396">
@@ -9861,7 +9857,7 @@
       <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="B397" t="s">
         <v>336</v>
       </c>
       <c r="D397">
@@ -9881,7 +9877,7 @@
       <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398" s="5" t="s">
+      <c r="B398" t="s">
         <v>337</v>
       </c>
       <c r="D398">
@@ -9901,8 +9897,8 @@
       <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399" s="5" t="s">
-        <v>535</v>
+      <c r="B399" t="s">
+        <v>533</v>
       </c>
       <c r="D399">
         <v>3</v>
@@ -9921,7 +9917,7 @@
       <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B400" s="5" t="s">
+      <c r="B400" t="s">
         <v>338</v>
       </c>
       <c r="D400">
@@ -9941,7 +9937,7 @@
       <c r="A401" s="1">
         <v>399</v>
       </c>
-      <c r="B401" s="5" t="s">
+      <c r="B401" t="s">
         <v>339</v>
       </c>
       <c r="D401">
@@ -9961,7 +9957,7 @@
       <c r="A402" s="1">
         <v>400</v>
       </c>
-      <c r="B402" s="5" t="s">
+      <c r="B402" t="s">
         <v>340</v>
       </c>
       <c r="D402">
@@ -9981,7 +9977,7 @@
       <c r="A403" s="1">
         <v>401</v>
       </c>
-      <c r="B403" s="5" t="s">
+      <c r="B403" t="s">
         <v>341</v>
       </c>
       <c r="C403">
@@ -9998,7 +9994,7 @@
       <c r="A404" s="1">
         <v>402</v>
       </c>
-      <c r="B404" s="5" t="s">
+      <c r="B404" t="s">
         <v>342</v>
       </c>
       <c r="D404">
@@ -10018,7 +10014,7 @@
       <c r="A405" s="1">
         <v>403</v>
       </c>
-      <c r="B405" s="5" t="s">
+      <c r="B405" t="s">
         <v>385</v>
       </c>
       <c r="D405">
@@ -10038,7 +10034,7 @@
       <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B406" s="5" t="s">
+      <c r="B406" t="s">
         <v>343</v>
       </c>
       <c r="D406">
@@ -10061,7 +10057,7 @@
       <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B407" s="5" t="s">
+      <c r="B407" t="s">
         <v>344</v>
       </c>
       <c r="D407">
@@ -10081,7 +10077,7 @@
       <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B408" s="5" t="s">
+      <c r="B408" t="s">
         <v>345</v>
       </c>
       <c r="D408">
@@ -10104,7 +10100,7 @@
       <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B409" s="5" t="s">
+      <c r="B409" t="s">
         <v>346</v>
       </c>
       <c r="D409">
@@ -10124,7 +10120,7 @@
       <c r="A410" s="1">
         <v>408</v>
       </c>
-      <c r="B410" s="5" t="s">
+      <c r="B410" t="s">
         <v>347</v>
       </c>
       <c r="D410">
@@ -10144,7 +10140,7 @@
       <c r="A411" s="1">
         <v>409</v>
       </c>
-      <c r="B411" s="5" t="s">
+      <c r="B411" t="s">
         <v>348</v>
       </c>
       <c r="D411">
@@ -10164,7 +10160,7 @@
       <c r="A412" s="1">
         <v>410</v>
       </c>
-      <c r="B412" s="5" t="s">
+      <c r="B412" t="s">
         <v>349</v>
       </c>
       <c r="D412">
@@ -10184,7 +10180,7 @@
       <c r="A413" s="1">
         <v>411</v>
       </c>
-      <c r="B413" s="5" t="s">
+      <c r="B413" t="s">
         <v>350</v>
       </c>
       <c r="D413">
@@ -10204,8 +10200,8 @@
       <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B414" s="5" t="s">
-        <v>537</v>
+      <c r="B414" t="s">
+        <v>535</v>
       </c>
       <c r="D414">
         <v>4</v>
@@ -10224,8 +10220,8 @@
       <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415" s="5" t="s">
-        <v>538</v>
+      <c r="B415" t="s">
+        <v>536</v>
       </c>
       <c r="D415">
         <v>4</v>
@@ -10244,7 +10240,7 @@
       <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416" s="5" t="s">
+      <c r="B416" t="s">
         <v>351</v>
       </c>
       <c r="C416">
@@ -10261,8 +10257,8 @@
       <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417" s="5" t="s">
-        <v>485</v>
+      <c r="B417" t="s">
+        <v>483</v>
       </c>
       <c r="C417">
         <v>3</v>
@@ -10278,8 +10274,8 @@
       <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B418" s="5" t="s">
-        <v>486</v>
+      <c r="B418" t="s">
+        <v>484</v>
       </c>
       <c r="C418">
         <v>4</v>
@@ -10295,8 +10291,8 @@
       <c r="A419" s="1">
         <v>417</v>
       </c>
-      <c r="B419" s="5" t="s">
-        <v>487</v>
+      <c r="B419" t="s">
+        <v>485</v>
       </c>
       <c r="C419">
         <v>4</v>
@@ -10312,8 +10308,8 @@
       <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420" s="5" t="s">
-        <v>488</v>
+      <c r="B420" t="s">
+        <v>486</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -10332,8 +10328,8 @@
       <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421" s="5" t="s">
-        <v>489</v>
+      <c r="B421" t="s">
+        <v>487</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -10352,7 +10348,7 @@
       <c r="A422" s="1">
         <v>420</v>
       </c>
-      <c r="B422" s="5" t="s">
+      <c r="B422" t="s">
         <v>352</v>
       </c>
       <c r="D422">
@@ -10372,7 +10368,7 @@
       <c r="A423" s="1">
         <v>421</v>
       </c>
-      <c r="B423" s="5" t="s">
+      <c r="B423" t="s">
         <v>353</v>
       </c>
       <c r="C423">
@@ -10389,7 +10385,7 @@
       <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B424" s="5" t="s">
+      <c r="B424" t="s">
         <v>354</v>
       </c>
       <c r="D424">
@@ -10409,7 +10405,7 @@
       <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425" s="5" t="s">
+      <c r="B425" t="s">
         <v>355</v>
       </c>
       <c r="D425">
@@ -10429,7 +10425,7 @@
       <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B426" s="5" t="s">
+      <c r="B426" t="s">
         <v>356</v>
       </c>
       <c r="D426">
@@ -10449,7 +10445,7 @@
       <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427" s="5" t="s">
+      <c r="B427" t="s">
         <v>357</v>
       </c>
       <c r="D427">
@@ -10469,8 +10465,8 @@
       <c r="A428" s="1">
         <v>426</v>
       </c>
-      <c r="B428" s="5" t="s">
-        <v>539</v>
+      <c r="B428" t="s">
+        <v>537</v>
       </c>
       <c r="C428">
         <v>2</v>
@@ -10486,7 +10482,7 @@
       <c r="A429" s="1">
         <v>427</v>
       </c>
-      <c r="B429" s="5" t="s">
+      <c r="B429" t="s">
         <v>358</v>
       </c>
       <c r="D429">
@@ -10506,7 +10502,7 @@
       <c r="A430" s="1">
         <v>428</v>
       </c>
-      <c r="B430" s="5" t="s">
+      <c r="B430" t="s">
         <v>359</v>
       </c>
       <c r="C430">
@@ -10523,7 +10519,7 @@
       <c r="A431" s="1">
         <v>429</v>
       </c>
-      <c r="B431" s="5" t="s">
+      <c r="B431" t="s">
         <v>360</v>
       </c>
       <c r="D431">
@@ -10543,7 +10539,7 @@
       <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B432" s="5" t="s">
+      <c r="B432" t="s">
         <v>361</v>
       </c>
       <c r="C432">
@@ -10560,7 +10556,7 @@
       <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433" s="5" t="s">
+      <c r="B433" t="s">
         <v>362</v>
       </c>
       <c r="D433">
@@ -10580,7 +10576,7 @@
       <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434" s="5" t="s">
+      <c r="B434" t="s">
         <v>363</v>
       </c>
       <c r="D434">
@@ -10600,7 +10596,7 @@
       <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" s="5" t="s">
+      <c r="B435" t="s">
         <v>364</v>
       </c>
       <c r="C435">
@@ -10617,7 +10613,7 @@
       <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B436" s="5" t="s">
+      <c r="B436" t="s">
         <v>365</v>
       </c>
       <c r="D436">
@@ -10637,7 +10633,7 @@
       <c r="A437" s="1">
         <v>435</v>
       </c>
-      <c r="B437" s="5" t="s">
+      <c r="B437" t="s">
         <v>366</v>
       </c>
       <c r="D437">
@@ -10657,7 +10653,7 @@
       <c r="A438" s="1">
         <v>436</v>
       </c>
-      <c r="B438" s="5" t="s">
+      <c r="B438" t="s">
         <v>367</v>
       </c>
       <c r="D438">
@@ -10677,7 +10673,7 @@
       <c r="A439" s="1">
         <v>437</v>
       </c>
-      <c r="B439" s="5" t="s">
+      <c r="B439" t="s">
         <v>368</v>
       </c>
       <c r="D439">
@@ -10697,7 +10693,7 @@
       <c r="A440" s="1">
         <v>438</v>
       </c>
-      <c r="B440" s="5" t="s">
+      <c r="B440" t="s">
         <v>369</v>
       </c>
       <c r="D440">
@@ -10717,7 +10713,7 @@
       <c r="A441" s="1">
         <v>439</v>
       </c>
-      <c r="B441" s="5" t="s">
+      <c r="B441" t="s">
         <v>370</v>
       </c>
       <c r="D441">
@@ -10737,7 +10733,7 @@
       <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B442" s="5" t="s">
+      <c r="B442" t="s">
         <v>371</v>
       </c>
       <c r="D442">
@@ -10757,7 +10753,7 @@
       <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B443" s="5" t="s">
+      <c r="B443" t="s">
         <v>372</v>
       </c>
       <c r="D443">
@@ -10777,7 +10773,7 @@
       <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B444" s="5" t="s">
+      <c r="B444" t="s">
         <v>373</v>
       </c>
       <c r="D444">
@@ -10797,7 +10793,7 @@
       <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B445" s="5" t="s">
+      <c r="B445" t="s">
         <v>374</v>
       </c>
       <c r="D445">
@@ -10817,7 +10813,7 @@
       <c r="A446" s="1">
         <v>444</v>
       </c>
-      <c r="B446" s="5" t="s">
+      <c r="B446" t="s">
         <v>375</v>
       </c>
       <c r="D446">
@@ -10837,7 +10833,7 @@
       <c r="A447" s="1">
         <v>445</v>
       </c>
-      <c r="B447" s="5" t="s">
+      <c r="B447" t="s">
         <v>376</v>
       </c>
       <c r="D447">
@@ -10857,7 +10853,7 @@
       <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B448" s="5" t="s">
+      <c r="B448" t="s">
         <v>377</v>
       </c>
       <c r="D448">
@@ -10877,8 +10873,8 @@
       <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B449" s="5" t="s">
-        <v>517</v>
+      <c r="B449" t="s">
+        <v>515</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -10897,7 +10893,7 @@
       <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B450" s="5" t="s">
+      <c r="B450" t="s">
         <v>378</v>
       </c>
       <c r="C450">
@@ -10914,7 +10910,7 @@
       <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451" s="5" t="s">
+      <c r="B451" t="s">
         <v>379</v>
       </c>
       <c r="D451">
@@ -10934,7 +10930,7 @@
       <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452" s="5" t="s">
+      <c r="B452" t="s">
         <v>380</v>
       </c>
       <c r="C452">
@@ -10957,7 +10953,7 @@
       <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453" s="5" t="s">
+      <c r="B453" t="s">
         <v>381</v>
       </c>
       <c r="D453">
@@ -10977,7 +10973,7 @@
       <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454" s="5" t="s">
+      <c r="B454" t="s">
         <v>382</v>
       </c>
       <c r="D454">
@@ -10997,7 +10993,7 @@
       <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B455" s="5" t="s">
+      <c r="B455" t="s">
         <v>383</v>
       </c>
       <c r="D455">
@@ -11017,7 +11013,7 @@
       <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B456" s="5" t="s">
+      <c r="B456" t="s">
         <v>384</v>
       </c>
       <c r="D456">
@@ -11037,7 +11033,7 @@
       <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457" s="5" t="s">
+      <c r="B457" t="s">
         <v>386</v>
       </c>
       <c r="C457">
@@ -11054,8 +11050,8 @@
       <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B458" s="5" t="s">
-        <v>518</v>
+      <c r="B458" t="s">
+        <v>516</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -11074,8 +11070,8 @@
       <c r="A459" s="1">
         <v>457</v>
       </c>
-      <c r="B459" s="5" t="s">
-        <v>519</v>
+      <c r="B459" t="s">
+        <v>517</v>
       </c>
       <c r="D459">
         <v>2</v>
@@ -11094,8 +11090,8 @@
       <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B460" s="5" t="s">
-        <v>520</v>
+      <c r="B460" t="s">
+        <v>518</v>
       </c>
       <c r="D460">
         <v>3</v>
@@ -11114,7 +11110,7 @@
       <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B461" s="5" t="s">
+      <c r="B461" t="s">
         <v>387</v>
       </c>
       <c r="D461">
@@ -11134,7 +11130,7 @@
       <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B462" s="5" t="s">
+      <c r="B462" t="s">
         <v>388</v>
       </c>
       <c r="D462">
@@ -11154,7 +11150,7 @@
       <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B463" s="5" t="s">
+      <c r="B463" t="s">
         <v>389</v>
       </c>
       <c r="D463">
@@ -11174,7 +11170,7 @@
       <c r="A464" s="1">
         <v>462</v>
       </c>
-      <c r="B464" s="5" t="s">
+      <c r="B464" t="s">
         <v>390</v>
       </c>
       <c r="D464">
@@ -11194,8 +11190,8 @@
       <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B465" s="5" t="s">
-        <v>532</v>
+      <c r="B465" t="s">
+        <v>530</v>
       </c>
       <c r="D465">
         <v>2</v>
@@ -11214,7 +11210,7 @@
       <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B466" s="5" t="s">
+      <c r="B466" t="s">
         <v>391</v>
       </c>
       <c r="D466">
@@ -11234,7 +11230,7 @@
       <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B467" s="5" t="s">
+      <c r="B467" t="s">
         <v>392</v>
       </c>
       <c r="D467">
@@ -11254,7 +11250,7 @@
       <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B468" s="5" t="s">
+      <c r="B468" t="s">
         <v>393</v>
       </c>
       <c r="D468">
@@ -11274,7 +11270,7 @@
       <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469" s="5" t="s">
+      <c r="B469" t="s">
         <v>394</v>
       </c>
       <c r="D469">
@@ -11294,7 +11290,7 @@
       <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470" s="5" t="s">
+      <c r="B470" t="s">
         <v>395</v>
       </c>
       <c r="C470">
@@ -11311,7 +11307,7 @@
       <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471" s="5" t="s">
+      <c r="B471" t="s">
         <v>396</v>
       </c>
       <c r="C471">
@@ -11328,8 +11324,8 @@
       <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472" s="5" t="s">
-        <v>521</v>
+      <c r="B472" t="s">
+        <v>519</v>
       </c>
       <c r="C472">
         <v>4</v>
@@ -11345,8 +11341,8 @@
       <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B473" s="5" t="s">
-        <v>534</v>
+      <c r="B473" t="s">
+        <v>532</v>
       </c>
       <c r="D473">
         <v>3</v>
@@ -11365,7 +11361,7 @@
       <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B474" s="5" t="s">
+      <c r="B474" t="s">
         <v>397</v>
       </c>
       <c r="D474">
@@ -11385,7 +11381,7 @@
       <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B475" s="5" t="s">
+      <c r="B475" t="s">
         <v>398</v>
       </c>
       <c r="D475">
@@ -11405,7 +11401,7 @@
       <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B476" s="5" t="s">
+      <c r="B476" t="s">
         <v>399</v>
       </c>
       <c r="D476">
@@ -11425,7 +11421,7 @@
       <c r="A477" s="1">
         <v>475</v>
       </c>
-      <c r="B477" s="5" t="s">
+      <c r="B477" t="s">
         <v>400</v>
       </c>
       <c r="D477">
@@ -11445,7 +11441,7 @@
       <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478" s="5" t="s">
+      <c r="B478" t="s">
         <v>401</v>
       </c>
       <c r="D478">
@@ -11465,7 +11461,7 @@
       <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479" s="5" t="s">
+      <c r="B479" t="s">
         <v>402</v>
       </c>
       <c r="D479">
@@ -11485,7 +11481,7 @@
       <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B480" s="5" t="s">
+      <c r="B480" t="s">
         <v>403</v>
       </c>
       <c r="D480">
@@ -11505,7 +11501,7 @@
       <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B481" s="5" t="s">
+      <c r="B481" t="s">
         <v>404</v>
       </c>
       <c r="D481">
@@ -11525,7 +11521,7 @@
       <c r="A482" s="1">
         <v>480</v>
       </c>
-      <c r="B482" s="5" t="s">
+      <c r="B482" t="s">
         <v>405</v>
       </c>
       <c r="D482">
@@ -11545,8 +11541,8 @@
       <c r="A483" s="1">
         <v>481</v>
       </c>
-      <c r="B483" s="5" t="s">
-        <v>516</v>
+      <c r="B483" t="s">
+        <v>514</v>
       </c>
       <c r="D483">
         <v>2</v>
@@ -11565,7 +11561,7 @@
       <c r="A484" s="1">
         <v>482</v>
       </c>
-      <c r="B484" s="5" t="s">
+      <c r="B484" t="s">
         <v>406</v>
       </c>
       <c r="C484">
@@ -11582,7 +11578,7 @@
       <c r="A485" s="1">
         <v>483</v>
       </c>
-      <c r="B485" s="5" t="s">
+      <c r="B485" t="s">
         <v>407</v>
       </c>
       <c r="D485">
@@ -11602,7 +11598,7 @@
       <c r="A486" s="1">
         <v>484</v>
       </c>
-      <c r="B486" s="5" t="s">
+      <c r="B486" t="s">
         <v>408</v>
       </c>
       <c r="D486">
@@ -11622,7 +11618,7 @@
       <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B487" s="5" t="s">
+      <c r="B487" t="s">
         <v>409</v>
       </c>
       <c r="D487">
@@ -11642,7 +11638,7 @@
       <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488" s="5" t="s">
+      <c r="B488" t="s">
         <v>410</v>
       </c>
       <c r="D488">
@@ -11662,7 +11658,7 @@
       <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489" s="5" t="s">
+      <c r="B489" t="s">
         <v>411</v>
       </c>
       <c r="C489">
@@ -11679,7 +11675,7 @@
       <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490" s="5" t="s">
+      <c r="B490" t="s">
         <v>412</v>
       </c>
       <c r="C490">
@@ -11696,7 +11692,7 @@
       <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B491" s="5" t="s">
+      <c r="B491" t="s">
         <v>413</v>
       </c>
       <c r="C491">
@@ -11713,7 +11709,7 @@
       <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B492" s="5" t="s">
+      <c r="B492" t="s">
         <v>144</v>
       </c>
       <c r="C492">
@@ -11730,7 +11726,7 @@
       <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B493" s="5" t="s">
+      <c r="B493" t="s">
         <v>414</v>
       </c>
       <c r="C493">
@@ -11747,7 +11743,7 @@
       <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B494" s="5" t="s">
+      <c r="B494" t="s">
         <v>458</v>
       </c>
       <c r="D494">
@@ -11767,7 +11763,7 @@
       <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B495" s="5" t="s">
+      <c r="B495" t="s">
         <v>415</v>
       </c>
       <c r="D495">
@@ -11787,7 +11783,7 @@
       <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496" s="5" t="s">
+      <c r="B496" t="s">
         <v>416</v>
       </c>
       <c r="C496">
@@ -11804,7 +11800,7 @@
       <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497" s="5" t="s">
+      <c r="B497" t="s">
         <v>417</v>
       </c>
       <c r="C497">
@@ -11821,7 +11817,7 @@
       <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498" s="5" t="s">
+      <c r="B498" t="s">
         <v>418</v>
       </c>
       <c r="D498">
@@ -11841,7 +11837,7 @@
       <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499" s="5" t="s">
+      <c r="B499" t="s">
         <v>419</v>
       </c>
       <c r="D499">
@@ -11861,8 +11857,8 @@
       <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B500" s="5" t="s">
-        <v>522</v>
+      <c r="B500" t="s">
+        <v>520</v>
       </c>
       <c r="D500">
         <v>3</v>
@@ -11881,7 +11877,7 @@
       <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B501" s="5" t="s">
+      <c r="B501" t="s">
         <v>420</v>
       </c>
       <c r="D501">
@@ -11901,8 +11897,8 @@
       <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B502" s="5" t="s">
-        <v>490</v>
+      <c r="B502" t="s">
+        <v>488</v>
       </c>
       <c r="C502">
         <v>2</v>
@@ -11918,8 +11914,8 @@
       <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B503" s="5" t="s">
-        <v>491</v>
+      <c r="B503" t="s">
+        <v>489</v>
       </c>
       <c r="C503">
         <v>3</v>
@@ -11935,7 +11931,7 @@
       <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B504" s="5" t="s">
+      <c r="B504" t="s">
         <v>421</v>
       </c>
       <c r="D504">
@@ -11955,7 +11951,7 @@
       <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505" s="5" t="s">
+      <c r="B505" t="s">
         <v>422</v>
       </c>
       <c r="D505">
@@ -11975,7 +11971,7 @@
       <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506" s="5" t="s">
+      <c r="B506" t="s">
         <v>423</v>
       </c>
       <c r="D506">
@@ -11995,7 +11991,7 @@
       <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507" s="5" t="s">
+      <c r="B507" t="s">
         <v>424</v>
       </c>
       <c r="D507">
@@ -12015,7 +12011,7 @@
       <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508" s="5" t="s">
+      <c r="B508" t="s">
         <v>425</v>
       </c>
       <c r="D508">
@@ -12035,7 +12031,7 @@
       <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B509" s="5" t="s">
+      <c r="B509" t="s">
         <v>426</v>
       </c>
       <c r="D509">
@@ -12055,7 +12051,7 @@
       <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B510" s="5" t="s">
+      <c r="B510" t="s">
         <v>427</v>
       </c>
       <c r="D510">
@@ -12075,7 +12071,7 @@
       <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B511" s="5" t="s">
+      <c r="B511" t="s">
         <v>428</v>
       </c>
       <c r="D511">
@@ -12095,7 +12091,7 @@
       <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B512" s="5" t="s">
+      <c r="B512" t="s">
         <v>429</v>
       </c>
       <c r="D512">
@@ -12115,7 +12111,7 @@
       <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B513" s="5" t="s">
+      <c r="B513" t="s">
         <v>430</v>
       </c>
       <c r="D513">
@@ -12135,8 +12131,8 @@
       <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514" s="5" t="s">
-        <v>523</v>
+      <c r="B514" t="s">
+        <v>521</v>
       </c>
       <c r="C514">
         <v>2</v>
@@ -12152,7 +12148,7 @@
       <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515" s="5" t="s">
+      <c r="B515" t="s">
         <v>431</v>
       </c>
       <c r="D515">
@@ -12172,7 +12168,7 @@
       <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516" s="5" t="s">
+      <c r="B516" t="s">
         <v>432</v>
       </c>
       <c r="D516">
@@ -12192,7 +12188,7 @@
       <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517" s="5" t="s">
+      <c r="B517" t="s">
         <v>433</v>
       </c>
       <c r="D517">
@@ -12212,7 +12208,7 @@
       <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B518" s="5" t="s">
+      <c r="B518" t="s">
         <v>434</v>
       </c>
       <c r="D518">
@@ -12232,7 +12228,7 @@
       <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B519" s="5" t="s">
+      <c r="B519" t="s">
         <v>435</v>
       </c>
       <c r="D519">
@@ -12252,7 +12248,7 @@
       <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B520" s="5" t="s">
+      <c r="B520" t="s">
         <v>436</v>
       </c>
       <c r="D520">
@@ -12272,7 +12268,7 @@
       <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B521" s="5" t="s">
+      <c r="B521" t="s">
         <v>437</v>
       </c>
       <c r="C521">
@@ -12289,7 +12285,7 @@
       <c r="A522" s="1">
         <v>520</v>
       </c>
-      <c r="B522" s="5" t="s">
+      <c r="B522" t="s">
         <v>459</v>
       </c>
       <c r="D522">
@@ -12309,7 +12305,7 @@
       <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B523" s="5" t="s">
+      <c r="B523" t="s">
         <v>438</v>
       </c>
       <c r="D523">
@@ -12329,7 +12325,7 @@
       <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B524" s="5" t="s">
+      <c r="B524" t="s">
         <v>439</v>
       </c>
       <c r="C524">
@@ -12346,7 +12342,7 @@
       <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B525" s="5" t="s">
+      <c r="B525" t="s">
         <v>441</v>
       </c>
       <c r="C525">
@@ -12363,7 +12359,7 @@
       <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B526" s="5" t="s">
+      <c r="B526" t="s">
         <v>442</v>
       </c>
       <c r="C526">
@@ -12380,7 +12376,7 @@
       <c r="A527" s="1">
         <v>525</v>
       </c>
-      <c r="B527" s="5" t="s">
+      <c r="B527" t="s">
         <v>440</v>
       </c>
       <c r="C527">
@@ -12397,7 +12393,7 @@
       <c r="A528" s="1">
         <v>526</v>
       </c>
-      <c r="B528" s="5" t="s">
+      <c r="B528" t="s">
         <v>443</v>
       </c>
       <c r="D528">
@@ -12417,7 +12413,7 @@
       <c r="A529" s="1">
         <v>527</v>
       </c>
-      <c r="B529" s="5" t="s">
+      <c r="B529" t="s">
         <v>444</v>
       </c>
       <c r="C529">
@@ -12434,7 +12430,7 @@
       <c r="A530" s="1">
         <v>528</v>
       </c>
-      <c r="B530" s="5" t="s">
+      <c r="B530" t="s">
         <v>445</v>
       </c>
       <c r="D530">
@@ -12454,7 +12450,7 @@
       <c r="A531" s="1">
         <v>529</v>
       </c>
-      <c r="B531" s="5" t="s">
+      <c r="B531" t="s">
         <v>446</v>
       </c>
       <c r="D531">
@@ -12474,7 +12470,7 @@
       <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B532" s="5" t="s">
+      <c r="B532" t="s">
         <v>447</v>
       </c>
       <c r="C532">
@@ -12491,8 +12487,8 @@
       <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B533" s="5" t="s">
-        <v>492</v>
+      <c r="B533" t="s">
+        <v>490</v>
       </c>
       <c r="D533">
         <v>3</v>
@@ -12511,8 +12507,8 @@
       <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B534" s="5" t="s">
-        <v>493</v>
+      <c r="B534" t="s">
+        <v>491</v>
       </c>
       <c r="D534">
         <v>2</v>

--- a/Naver_Liquor_Wiki/naver_wiki_total.xlsx
+++ b/Naver_Liquor_Wiki/naver_wiki_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X1Carbon\Hee\ML_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C27EF-C472-4EFB-9909-D0E472692D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA6308-C2A8-48C7-9979-93CF94000CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1968" yWindow="-10296" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>귀감</t>
   </si>
   <si>
-    <t>그랑고또레드와인</t>
-  </si>
-  <si>
     <t>그랑꼬또로제와인</t>
   </si>
   <si>
@@ -921,9 +918,6 @@
   </si>
   <si>
     <t>오메기술</t>
-  </si>
-  <si>
-    <t>오메락퍽</t>
   </si>
   <si>
     <t>오미로제프리미어와인</t>
@@ -1720,6 +1714,14 @@
   </si>
   <si>
     <t>예천주복만월40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오매락퍽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랑꼬또레드와인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2162,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="L332" sqref="L332"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2173,7 +2175,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2326,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2343,7 +2345,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2366,7 +2368,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -2543,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2597,7 +2599,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2725,7 +2727,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2762,7 +2764,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2782,7 +2784,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2799,7 +2801,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2816,7 +2818,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2833,7 +2835,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2967,7 +2969,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2984,7 +2986,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -3138,7 +3140,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3158,7 +3160,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3178,7 +3180,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3198,7 +3200,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3218,7 +3220,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3238,7 +3240,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3258,7 +3260,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3278,7 +3280,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3298,7 +3300,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3318,7 +3320,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3338,7 +3340,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -3355,7 +3357,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -3372,7 +3374,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3392,7 +3394,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3412,7 +3414,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3432,7 +3434,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3452,7 +3454,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -3472,7 +3474,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3492,7 +3494,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -3512,7 +3514,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -3532,7 +3534,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3552,7 +3554,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3569,7 +3571,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -3589,7 +3591,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -3609,7 +3611,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3629,7 +3631,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3649,7 +3651,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -3669,7 +3671,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -3689,7 +3691,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -3709,7 +3711,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -3729,7 +3731,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -3749,7 +3751,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -3769,7 +3771,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3789,7 +3791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -3806,7 +3808,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -3823,7 +3825,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -3843,7 +3845,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -3863,7 +3865,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -3883,7 +3885,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -3903,7 +3905,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -3923,7 +3925,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3943,7 +3945,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -3963,7 +3965,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -3983,7 +3985,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4003,7 +4005,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -4023,7 +4025,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -4043,7 +4045,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4063,7 +4065,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4083,7 +4085,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -4103,7 +4105,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -4120,7 +4122,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -4140,7 +4142,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -4160,7 +4162,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -4180,7 +4182,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -4200,7 +4202,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -4220,7 +4222,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -4240,7 +4242,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -4260,7 +4262,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -4280,7 +4282,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -4300,7 +4302,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -4320,7 +4322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -4340,7 +4342,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -4360,7 +4362,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D113">
         <v>4</v>
@@ -4380,7 +4382,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -4400,7 +4402,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -4417,7 +4419,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -4434,7 +4436,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -4454,7 +4456,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D118">
         <v>4</v>
@@ -4474,7 +4476,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2">
@@ -4495,7 +4497,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -4515,7 +4517,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -4535,7 +4537,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4552,7 +4554,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -4569,7 +4571,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -4589,7 +4591,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -4606,7 +4608,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C126">
         <v>3</v>
@@ -4623,7 +4625,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -4643,7 +4645,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -4663,7 +4665,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -4683,7 +4685,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -4703,7 +4705,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -4723,7 +4725,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -4740,7 +4742,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -4757,7 +4759,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -4774,7 +4776,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -4791,7 +4793,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -4808,7 +4810,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -4828,7 +4830,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D138">
         <v>4</v>
@@ -4848,7 +4850,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -4865,7 +4867,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -4882,7 +4884,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -4902,7 +4904,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -4922,7 +4924,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -4942,7 +4944,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -4962,7 +4964,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -4982,7 +4984,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -5002,7 +5004,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D147">
         <v>3</v>
@@ -5022,7 +5024,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -5039,7 +5041,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -5059,7 +5061,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -5079,7 +5081,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -5099,7 +5101,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D152">
         <v>4</v>
@@ -5119,7 +5121,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D153">
         <v>4</v>
@@ -5139,7 +5141,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -5156,7 +5158,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -5176,7 +5178,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -5193,7 +5195,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -5210,7 +5212,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -5227,7 +5229,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -5244,7 +5246,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -5261,7 +5263,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -5281,7 +5283,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -5301,7 +5303,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -5318,7 +5320,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -5335,7 +5337,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -5355,7 +5357,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C166">
         <v>4</v>
@@ -5372,7 +5374,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -5392,7 +5394,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -5409,7 +5411,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D169">
         <v>4</v>
@@ -5429,7 +5431,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -5449,7 +5451,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -5469,7 +5471,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -5486,7 +5488,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -5503,7 +5505,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C174">
         <v>4</v>
@@ -5520,7 +5522,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -5540,7 +5542,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -5557,7 +5559,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -5574,7 +5576,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C178">
         <v>2</v>
@@ -5591,7 +5593,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -5611,7 +5613,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -5631,7 +5633,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -5651,7 +5653,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -5671,7 +5673,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -5691,7 +5693,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -5711,7 +5713,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D185">
         <v>4</v>
@@ -5731,7 +5733,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D186">
         <v>4</v>
@@ -5751,7 +5753,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -5771,7 +5773,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -5788,7 +5790,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D189">
         <v>4</v>
@@ -5808,7 +5810,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D190">
         <v>5</v>
@@ -5828,7 +5830,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D191">
         <v>2</v>
@@ -5848,7 +5850,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -5868,7 +5870,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -5888,7 +5890,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C194">
         <v>4</v>
@@ -5908,7 +5910,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -5925,7 +5927,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -5945,7 +5947,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -5965,7 +5967,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D198">
         <v>2</v>
@@ -5985,7 +5987,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -6005,7 +6007,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -6025,7 +6027,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -6045,7 +6047,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D202">
         <v>2</v>
@@ -6065,7 +6067,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D203">
         <v>3</v>
@@ -6085,7 +6087,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -6105,7 +6107,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D205">
         <v>4</v>
@@ -6125,7 +6127,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D206">
         <v>5</v>
@@ -6145,7 +6147,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D207">
         <v>4</v>
@@ -6165,7 +6167,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -6185,7 +6187,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D209">
         <v>2</v>
@@ -6205,7 +6207,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D210">
         <v>4</v>
@@ -6225,7 +6227,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -6245,7 +6247,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D212">
         <v>3</v>
@@ -6265,7 +6267,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C213">
         <v>4</v>
@@ -6282,7 +6284,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D214">
         <v>3</v>
@@ -6302,7 +6304,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -6319,7 +6321,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D216">
         <v>2</v>
@@ -6339,7 +6341,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D217">
         <v>2</v>
@@ -6359,7 +6361,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -6379,7 +6381,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -6399,7 +6401,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -6419,7 +6421,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -6439,7 +6441,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D222">
         <v>3</v>
@@ -6459,7 +6461,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D223">
         <v>4</v>
@@ -6479,7 +6481,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -6496,7 +6498,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D225">
         <v>4</v>
@@ -6516,7 +6518,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D226">
         <v>3</v>
@@ -6536,7 +6538,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D227">
         <v>4</v>
@@ -6556,7 +6558,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D228">
         <v>4</v>
@@ -6576,7 +6578,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -6596,7 +6598,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D230">
         <v>3</v>
@@ -6616,7 +6618,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -6636,7 +6638,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -6656,7 +6658,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D233">
         <v>2</v>
@@ -6676,7 +6678,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D234">
         <v>2</v>
@@ -6696,7 +6698,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D235">
         <v>3</v>
@@ -6716,7 +6718,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D236">
         <v>4</v>
@@ -6736,7 +6738,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D237">
         <v>2</v>
@@ -6756,7 +6758,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D238">
         <v>3</v>
@@ -6776,7 +6778,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D239">
         <v>3</v>
@@ -6796,7 +6798,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C240">
         <v>3</v>
@@ -6813,7 +6815,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D241">
         <v>4</v>
@@ -6833,7 +6835,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C242">
         <v>4</v>
@@ -6850,7 +6852,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D243">
         <v>3</v>
@@ -6870,7 +6872,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -6890,7 +6892,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -6910,7 +6912,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D246">
         <v>2</v>
@@ -6930,7 +6932,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D247">
         <v>4</v>
@@ -6950,7 +6952,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D248">
         <v>4</v>
@@ -6970,7 +6972,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D249">
         <v>4</v>
@@ -6990,7 +6992,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -7010,7 +7012,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D251">
         <v>2</v>
@@ -7030,7 +7032,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C252">
         <v>2</v>
@@ -7047,7 +7049,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -7064,7 +7066,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D254">
         <v>2</v>
@@ -7084,7 +7086,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D255">
         <v>2</v>
@@ -7104,7 +7106,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D256">
         <v>3</v>
@@ -7124,7 +7126,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D257">
         <v>3</v>
@@ -7144,7 +7146,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C258">
         <v>5</v>
@@ -7161,7 +7163,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D259">
         <v>3</v>
@@ -7181,7 +7183,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D260">
         <v>3</v>
@@ -7201,7 +7203,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D261">
         <v>3</v>
@@ -7221,7 +7223,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D262">
         <v>4</v>
@@ -7241,7 +7243,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -7261,7 +7263,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D264">
         <v>2</v>
@@ -7281,7 +7283,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C265">
         <v>3</v>
@@ -7298,7 +7300,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D266">
         <v>3</v>
@@ -7318,7 +7320,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D267">
         <v>2</v>
@@ -7338,7 +7340,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D268">
         <v>2</v>
@@ -7358,7 +7360,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -7378,7 +7380,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D270">
         <v>2</v>
@@ -7398,7 +7400,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -7418,7 +7420,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -7438,7 +7440,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -7458,7 +7460,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -7478,7 +7480,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F275">
         <v>3</v>
@@ -7495,7 +7497,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -7515,7 +7517,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D277">
         <v>3</v>
@@ -7535,7 +7537,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D278">
         <v>2</v>
@@ -7555,7 +7557,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D279">
         <v>4</v>
@@ -7575,7 +7577,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D280">
         <v>4</v>
@@ -7595,7 +7597,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -7615,7 +7617,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D282">
         <v>5</v>
@@ -7635,7 +7637,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D283">
         <v>5</v>
@@ -7655,7 +7657,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D284">
         <v>5</v>
@@ -7675,7 +7677,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -7695,7 +7697,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D286">
         <v>4</v>
@@ -7715,7 +7717,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D287">
         <v>2</v>
@@ -7735,7 +7737,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D288">
         <v>3</v>
@@ -7755,7 +7757,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D289">
         <v>3</v>
@@ -7775,7 +7777,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -7795,7 +7797,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D291">
         <v>3</v>
@@ -7815,7 +7817,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -7835,7 +7837,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D293">
         <v>2</v>
@@ -7855,7 +7857,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -7875,7 +7877,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D295">
         <v>4</v>
@@ -7895,7 +7897,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D296">
         <v>2</v>
@@ -7915,7 +7917,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F297">
         <v>4</v>
@@ -7932,7 +7934,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D298">
         <v>3</v>
@@ -7952,7 +7954,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D299">
         <v>2</v>
@@ -7975,7 +7977,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D300">
         <v>3</v>
@@ -7995,7 +7997,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C301">
         <v>4</v>
@@ -8015,7 +8017,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C302">
         <v>4</v>
@@ -8038,7 +8040,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D303">
         <v>3</v>
@@ -8058,7 +8060,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -8078,7 +8080,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -8098,7 +8100,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C306">
         <v>2</v>
@@ -8115,7 +8117,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C307">
         <v>3</v>
@@ -8132,7 +8134,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -8149,7 +8151,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -8166,7 +8168,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -8183,7 +8185,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C311">
         <v>3</v>
@@ -8200,7 +8202,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D312">
         <v>3</v>
@@ -8220,7 +8222,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D313">
         <v>3</v>
@@ -8240,7 +8242,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D314">
         <v>4</v>
@@ -8260,7 +8262,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D315">
         <v>4</v>
@@ -8280,7 +8282,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D316">
         <v>4</v>
@@ -8300,7 +8302,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D317">
         <v>4</v>
@@ -8320,7 +8322,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -8340,7 +8342,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D319">
         <v>2</v>
@@ -8360,7 +8362,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D320">
         <v>2</v>
@@ -8380,7 +8382,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C321">
         <v>2</v>
@@ -8397,7 +8399,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C322">
         <v>3</v>
@@ -8414,7 +8416,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D323">
         <v>2</v>
@@ -8434,7 +8436,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D324">
         <v>4</v>
@@ -8454,7 +8456,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -8474,7 +8476,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D326">
         <v>2</v>
@@ -8494,7 +8496,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D327">
         <v>2</v>
@@ -8514,7 +8516,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C328">
         <v>3</v>
@@ -8531,7 +8533,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D329">
         <v>2</v>
@@ -8551,7 +8553,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D330">
         <v>4</v>
@@ -8571,7 +8573,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -8588,7 +8590,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -8608,7 +8610,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -8628,7 +8630,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D334">
         <v>4</v>
@@ -8648,7 +8650,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -8668,7 +8670,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C336">
         <v>3</v>
@@ -8685,7 +8687,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C337">
         <v>4</v>
@@ -8702,7 +8704,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C338">
         <v>3</v>
@@ -8719,7 +8721,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C339">
         <v>3</v>
@@ -8736,7 +8738,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D340">
         <v>2</v>
@@ -8776,7 +8778,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D342">
         <v>3</v>
@@ -8796,7 +8798,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D343">
         <v>5</v>
@@ -8816,7 +8818,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -8836,7 +8838,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D345">
         <v>2</v>
@@ -8856,7 +8858,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>295</v>
+        <v>540</v>
       </c>
       <c r="C346">
         <v>3</v>
@@ -8873,7 +8875,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D347">
         <v>2</v>
@@ -8893,7 +8895,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D348">
         <v>3</v>
@@ -8913,7 +8915,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -8933,7 +8935,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D350">
         <v>2</v>
@@ -8953,7 +8955,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -8973,7 +8975,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C352">
         <v>3</v>
@@ -8990,7 +8992,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D353">
         <v>3</v>
@@ -9010,7 +9012,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D354">
         <v>4</v>
@@ -9030,7 +9032,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D355">
         <v>4</v>
@@ -9050,7 +9052,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D356">
         <v>4</v>
@@ -9070,7 +9072,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D357">
         <v>3</v>
@@ -9090,7 +9092,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C358">
         <v>4</v>
@@ -9107,7 +9109,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C359">
         <v>3</v>
@@ -9124,7 +9126,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C360">
         <v>3</v>
@@ -9141,7 +9143,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D361">
         <v>3</v>
@@ -9161,7 +9163,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D362">
         <v>2</v>
@@ -9181,7 +9183,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D363">
         <v>3</v>
@@ -9201,7 +9203,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D364">
         <v>2</v>
@@ -9221,7 +9223,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D365">
         <v>2</v>
@@ -9241,7 +9243,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D366">
         <v>2</v>
@@ -9261,7 +9263,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D367">
         <v>2</v>
@@ -9281,7 +9283,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -9301,7 +9303,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -9321,7 +9323,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D370">
         <v>2</v>
@@ -9341,7 +9343,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D371">
         <v>2</v>
@@ -9361,7 +9363,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C372">
         <v>2</v>
@@ -9384,7 +9386,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -9404,7 +9406,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D374">
         <v>3</v>
@@ -9424,7 +9426,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D375">
         <v>3</v>
@@ -9444,7 +9446,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D376">
         <v>2</v>
@@ -9464,7 +9466,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D377">
         <v>3</v>
@@ -9484,7 +9486,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -9504,7 +9506,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D379">
         <v>2</v>
@@ -9524,7 +9526,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D380">
         <v>2</v>
@@ -9544,7 +9546,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D381">
         <v>2</v>
@@ -9564,7 +9566,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D382">
         <v>2</v>
@@ -9584,7 +9586,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -9601,7 +9603,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -9621,7 +9623,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D385">
         <v>2</v>
@@ -9641,7 +9643,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D386">
         <v>2</v>
@@ -9661,7 +9663,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D387">
         <v>2</v>
@@ -9681,7 +9683,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D388">
         <v>3</v>
@@ -9701,7 +9703,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -9721,7 +9723,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D390">
         <v>4</v>
@@ -9741,7 +9743,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D391">
         <v>4</v>
@@ -9761,7 +9763,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D392">
         <v>3</v>
@@ -9781,7 +9783,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D393">
         <v>3</v>
@@ -9801,7 +9803,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C394">
         <v>4</v>
@@ -9818,7 +9820,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D395">
         <v>2</v>
@@ -9838,7 +9840,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D396">
         <v>3</v>
@@ -9858,7 +9860,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -9878,7 +9880,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D398">
         <v>3</v>
@@ -9898,7 +9900,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D399">
         <v>3</v>
@@ -9918,7 +9920,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D400">
         <v>3</v>
@@ -9938,7 +9940,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D401">
         <v>2</v>
@@ -9958,7 +9960,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D402">
         <v>5</v>
@@ -9978,7 +9980,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C403">
         <v>4</v>
@@ -9995,7 +9997,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -10015,7 +10017,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D405">
         <v>2</v>
@@ -10035,7 +10037,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D406">
         <v>4</v>
@@ -10058,7 +10060,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D407">
         <v>4</v>
@@ -10078,7 +10080,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D408">
         <v>4</v>
@@ -10101,7 +10103,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -10121,7 +10123,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -10141,7 +10143,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D411">
         <v>3</v>
@@ -10161,7 +10163,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D412">
         <v>2</v>
@@ -10181,7 +10183,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D413">
         <v>3</v>
@@ -10201,7 +10203,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D414">
         <v>4</v>
@@ -10221,7 +10223,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D415">
         <v>4</v>
@@ -10241,7 +10243,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C416">
         <v>3</v>
@@ -10258,7 +10260,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C417">
         <v>3</v>
@@ -10275,7 +10277,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C418">
         <v>4</v>
@@ -10292,7 +10294,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C419">
         <v>4</v>
@@ -10309,7 +10311,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -10329,7 +10331,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -10349,7 +10351,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D422">
         <v>3</v>
@@ -10369,7 +10371,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C423">
         <v>3</v>
@@ -10386,7 +10388,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D424">
         <v>2</v>
@@ -10406,7 +10408,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D425">
         <v>3</v>
@@ -10426,7 +10428,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D426">
         <v>2</v>
@@ -10446,7 +10448,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -10466,7 +10468,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C428">
         <v>2</v>
@@ -10483,7 +10485,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D429">
         <v>3</v>
@@ -10503,7 +10505,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C430">
         <v>2</v>
@@ -10520,7 +10522,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D431">
         <v>2</v>
@@ -10540,7 +10542,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C432">
         <v>3</v>
@@ -10557,7 +10559,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D433">
         <v>2</v>
@@ -10577,7 +10579,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D434">
         <v>2</v>
@@ -10597,7 +10599,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C435">
         <v>5</v>
@@ -10614,7 +10616,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D436">
         <v>2</v>
@@ -10634,7 +10636,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D437">
         <v>3</v>
@@ -10654,7 +10656,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D438">
         <v>3</v>
@@ -10674,7 +10676,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D439">
         <v>4</v>
@@ -10694,7 +10696,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -10714,7 +10716,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D441">
         <v>2</v>
@@ -10734,7 +10736,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -10754,7 +10756,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D443">
         <v>3</v>
@@ -10774,7 +10776,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D444">
         <v>2</v>
@@ -10794,7 +10796,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D445">
         <v>2</v>
@@ -10814,7 +10816,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D446">
         <v>3</v>
@@ -10834,7 +10836,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D447">
         <v>2</v>
@@ -10854,7 +10856,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D448">
         <v>2</v>
@@ -10874,7 +10876,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -10894,7 +10896,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C450">
         <v>5</v>
@@ -10911,7 +10913,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D451">
         <v>2</v>
@@ -10931,7 +10933,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C452">
         <v>4</v>
@@ -10954,7 +10956,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D453">
         <v>3</v>
@@ -10974,7 +10976,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D454">
         <v>3</v>
@@ -10994,7 +10996,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D455">
         <v>2</v>
@@ -11014,7 +11016,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D456">
         <v>3</v>
@@ -11034,7 +11036,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C457">
         <v>4</v>
@@ -11051,7 +11053,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -11071,7 +11073,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D459">
         <v>2</v>
@@ -11091,7 +11093,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D460">
         <v>3</v>
@@ -11111,7 +11113,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D461">
         <v>3</v>
@@ -11131,7 +11133,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D462">
         <v>2</v>
@@ -11151,7 +11153,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D463">
         <v>1</v>
@@ -11171,7 +11173,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D464">
         <v>3</v>
@@ -11191,7 +11193,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D465">
         <v>2</v>
@@ -11211,7 +11213,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D466">
         <v>4</v>
@@ -11231,7 +11233,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D467">
         <v>4</v>
@@ -11251,7 +11253,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -11271,7 +11273,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D469">
         <v>4</v>
@@ -11291,7 +11293,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C470">
         <v>3</v>
@@ -11308,7 +11310,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C471">
         <v>2</v>
@@ -11325,7 +11327,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C472">
         <v>4</v>
@@ -11342,7 +11344,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D473">
         <v>3</v>
@@ -11362,7 +11364,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D474">
         <v>3</v>
@@ -11382,7 +11384,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D475">
         <v>3</v>
@@ -11402,7 +11404,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D476">
         <v>3</v>
@@ -11422,7 +11424,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -11442,7 +11444,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -11462,7 +11464,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D479">
         <v>2</v>
@@ -11482,7 +11484,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D480">
         <v>4</v>
@@ -11502,7 +11504,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D481">
         <v>4</v>
@@ -11522,7 +11524,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D482">
         <v>4</v>
@@ -11542,7 +11544,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D483">
         <v>2</v>
@@ -11562,7 +11564,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C484">
         <v>3</v>
@@ -11579,7 +11581,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D485">
         <v>1</v>
@@ -11599,7 +11601,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D486">
         <v>2</v>
@@ -11619,7 +11621,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D487">
         <v>4</v>
@@ -11639,7 +11641,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D488">
         <v>3</v>
@@ -11659,7 +11661,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C489">
         <v>3</v>
@@ -11676,7 +11678,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C490">
         <v>4</v>
@@ -11693,7 +11695,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C491">
         <v>5</v>
@@ -11710,7 +11712,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C492">
         <v>2</v>
@@ -11727,7 +11729,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C493">
         <v>2</v>
@@ -11744,7 +11746,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D494">
         <v>3</v>
@@ -11764,7 +11766,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D495">
         <v>4</v>
@@ -11784,7 +11786,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C496">
         <v>4</v>
@@ -11801,7 +11803,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C497">
         <v>3</v>
@@ -11818,7 +11820,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D498">
         <v>3</v>
@@ -11838,7 +11840,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D499">
         <v>5</v>
@@ -11858,7 +11860,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D500">
         <v>3</v>
@@ -11878,7 +11880,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D501">
         <v>3</v>
@@ -11898,7 +11900,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C502">
         <v>2</v>
@@ -11915,7 +11917,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C503">
         <v>3</v>
@@ -11932,7 +11934,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D504">
         <v>1</v>
@@ -11952,7 +11954,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D505">
         <v>1</v>
@@ -11972,7 +11974,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D506">
         <v>1</v>
@@ -11992,7 +11994,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D507">
         <v>3</v>
@@ -12012,7 +12014,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D508">
         <v>3</v>
@@ -12032,7 +12034,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D509">
         <v>3</v>
@@ -12052,7 +12054,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D510">
         <v>2</v>
@@ -12072,7 +12074,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D511">
         <v>2</v>
@@ -12092,7 +12094,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D512">
         <v>4</v>
@@ -12112,7 +12114,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D513">
         <v>3</v>
@@ -12132,7 +12134,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C514">
         <v>2</v>
@@ -12149,7 +12151,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D515">
         <v>1</v>
@@ -12169,7 +12171,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D516">
         <v>1</v>
@@ -12189,7 +12191,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D517">
         <v>3</v>
@@ -12209,7 +12211,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D518">
         <v>4</v>
@@ -12229,7 +12231,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D519">
         <v>1</v>
@@ -12249,7 +12251,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D520">
         <v>4</v>
@@ -12269,7 +12271,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C521">
         <v>4</v>
@@ -12286,7 +12288,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -12306,7 +12308,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D523">
         <v>2</v>
@@ -12326,7 +12328,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C524">
         <v>2</v>
@@ -12343,7 +12345,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C525">
         <v>2</v>
@@ -12360,7 +12362,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C526">
         <v>3</v>
@@ -12377,7 +12379,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C527">
         <v>3</v>
@@ -12394,7 +12396,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D528">
         <v>3</v>
@@ -12414,7 +12416,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C529">
         <v>2</v>
@@ -12431,7 +12433,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D530">
         <v>3</v>
@@ -12451,7 +12453,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D531">
         <v>2</v>
@@ -12471,7 +12473,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C532">
         <v>2</v>
@@ -12488,7 +12490,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D533">
         <v>3</v>
@@ -12508,7 +12510,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D534">
         <v>2</v>
